--- a/careerpathtemplate.xlsx
+++ b/careerpathtemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stijndolphen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AD34E-C26A-994D-B16F-9ED6501C9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADF8B0-1F77-2349-B083-EB99E330EE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35840" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulting Skills" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="375">
   <si>
     <t>Objective</t>
   </si>
@@ -6038,43 +6039,64 @@
     <t>Input Column</t>
   </si>
   <si>
-    <t>D3</t>
+    <t>D3GAP</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>D4GAP</t>
   </si>
   <si>
-    <t>D5</t>
+    <t>D5GAP</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>E1GAP</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>E2GAP</t>
   </si>
   <si>
-    <t>E3</t>
+    <t>E3GAP</t>
   </si>
   <si>
-    <t>E4</t>
+    <t>E4GAP</t>
   </si>
   <si>
-    <t>E5</t>
+    <t>E5GAP</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>T1GAP</t>
   </si>
   <si>
-    <t>T2</t>
+    <t>T2GAP</t>
   </si>
   <si>
-    <t>T3</t>
+    <t>T3GAP</t>
   </si>
   <si>
-    <t>T4</t>
+    <t>T4GAP</t>
   </si>
   <si>
-    <t>T5</t>
+    <t>T5GAP</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>BU Skills</t>
+  </si>
+  <si>
+    <t>subdomain</t>
+  </si>
+  <si>
+    <t>Knowledge Sharing</t>
+  </si>
+  <si>
+    <t>reference</t>
   </si>
 </sst>
 </file>
@@ -6601,7 +6623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6830,6 +6852,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7086,10 +7109,13 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="4" max="4" width="42.1640625" customWidth="1"/>
@@ -37341,7 +37367,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="95" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="47" t="s">
@@ -37355,7 +37381,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="47" t="s">
         <v>26</v>
       </c>
@@ -37370,7 +37396,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="47" t="s">
         <v>33</v>
       </c>
@@ -37382,7 +37408,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="95"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="47" t="s">
         <v>40</v>
       </c>
@@ -37394,7 +37420,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="52" t="s">
         <v>48</v>
       </c>
@@ -37409,7 +37435,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="47" t="s">
@@ -37423,7 +37449,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="47" t="s">
         <v>63</v>
       </c>
@@ -37435,7 +37461,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="52" t="s">
         <v>70</v>
       </c>
@@ -37450,7 +37476,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="95" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -37464,7 +37490,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -37615,8 +37641,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="97" t="s">
+    <row r="5" spans="1:10" ht="42">
+      <c r="A5" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="47" t="s">
@@ -37643,7 +37669,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="50" t="s">
         <v>138</v>
       </c>
@@ -37665,7 +37691,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="50" t="s">
         <v>144</v>
       </c>
@@ -37687,7 +37713,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="95"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="50" t="s">
         <v>150</v>
       </c>
@@ -37709,7 +37735,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>156</v>
       </c>
@@ -37732,7 +37758,7 @@
       <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="95"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="50" t="s">
         <v>162</v>
       </c>
@@ -37754,7 +37780,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="96"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="52" t="s">
         <v>168</v>
       </c>
@@ -37776,7 +37802,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="98" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -37800,7 +37826,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="68" t="s">
         <v>181</v>
       </c>
@@ -37822,7 +37848,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="52" t="s">
         <v>187</v>
       </c>
@@ -37842,7 +37868,7 @@
       <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="98" t="s">
         <v>192</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -37864,7 +37890,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="95"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="66" t="s">
         <v>198</v>
       </c>
@@ -37884,7 +37910,7 @@
       <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="66" t="s">
         <v>203</v>
       </c>
@@ -37900,7 +37926,7 @@
       <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="66" t="s">
         <v>206</v>
       </c>
@@ -37918,7 +37944,7 @@
       <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="66" t="s">
         <v>210</v>
       </c>
@@ -37938,7 +37964,7 @@
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="66" t="s">
         <v>215</v>
       </c>
@@ -37960,7 +37986,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="96"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="52" t="s">
         <v>221</v>
       </c>
@@ -37982,7 +38008,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="98" t="s">
         <v>227</v>
       </c>
       <c r="B22" s="66" t="s">
@@ -38006,7 +38032,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="95"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="66" t="s">
         <v>234</v>
       </c>
@@ -38024,7 +38050,7 @@
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="95"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="66" t="s">
         <v>238</v>
       </c>
@@ -38045,7 +38071,7 @@
       <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="96"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="52" t="s">
         <v>243</v>
       </c>
@@ -38066,7 +38092,7 @@
       <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="98" t="s">
         <v>248</v>
       </c>
       <c r="B26" s="66" t="s">
@@ -38090,7 +38116,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="66" t="s">
         <v>255</v>
       </c>
@@ -38110,7 +38136,7 @@
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="95"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="66" t="s">
         <v>260</v>
       </c>
@@ -38126,7 +38152,7 @@
       <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="95"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="66" t="s">
         <v>263</v>
       </c>
@@ -38146,7 +38172,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="95"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="66" t="s">
         <v>268</v>
       </c>
@@ -38168,7 +38194,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="66" t="s">
         <v>274</v>
       </c>
@@ -38186,7 +38212,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="96"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="52" t="s">
         <v>278</v>
       </c>
@@ -38227,7 +38253,9 @@
   </sheetPr>
   <dimension ref="A4:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -38270,7 +38298,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="99" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -38284,7 +38312,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="50" t="s">
         <v>138</v>
       </c>
@@ -38296,7 +38324,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="95"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="50" t="s">
         <v>144</v>
       </c>
@@ -38308,7 +38336,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="50" t="s">
         <v>150</v>
       </c>
@@ -38320,7 +38348,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="95"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="50" t="s">
         <v>156</v>
       </c>
@@ -38332,7 +38360,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="50" t="s">
         <v>162</v>
       </c>
@@ -38344,7 +38372,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="52" t="s">
         <v>168</v>
       </c>
@@ -38356,7 +38384,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="99" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -38370,7 +38398,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="95"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="50" t="s">
         <v>181</v>
       </c>
@@ -38385,7 +38413,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="96"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="52" t="s">
         <v>187</v>
       </c>
@@ -38397,7 +38425,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="99" t="s">
         <v>192</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -38414,7 +38442,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="50" t="s">
         <v>198</v>
       </c>
@@ -38426,7 +38454,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="50" t="s">
         <v>203</v>
       </c>
@@ -38441,7 +38469,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="50" t="s">
         <v>206</v>
       </c>
@@ -38453,7 +38481,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="50" t="s">
         <v>210</v>
       </c>
@@ -38465,7 +38493,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="50" t="s">
         <v>215</v>
       </c>
@@ -38477,7 +38505,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="96"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="52" t="s">
         <v>221</v>
       </c>
@@ -38489,7 +38517,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="99" t="s">
         <v>227</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -38503,7 +38531,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="95"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="50" t="s">
         <v>234</v>
       </c>
@@ -38515,7 +38543,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="50" t="s">
         <v>238</v>
       </c>
@@ -38530,7 +38558,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="96"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="52" t="s">
         <v>243</v>
       </c>
@@ -38545,7 +38573,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="99" t="s">
         <v>248</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -38559,7 +38587,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="95"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="50" t="s">
         <v>255</v>
       </c>
@@ -38574,7 +38602,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="95"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="50" t="s">
         <v>260</v>
       </c>
@@ -38586,7 +38614,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="95"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="50" t="s">
         <v>263</v>
       </c>
@@ -38601,7 +38629,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="50" t="s">
         <v>268</v>
       </c>
@@ -38616,7 +38644,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="95"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="50" t="s">
         <v>274</v>
       </c>
@@ -38628,7 +38656,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="96"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="52" t="s">
         <v>278</v>
       </c>
@@ -38679,7 +38707,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -40585,109 +40613,115 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" customHeight="1">
+    <row r="1" spans="1:43" ht="15.75" customHeight="1">
       <c r="A1" s="66" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="83" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" s="83" t="s">
+      <c r="G1" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="83" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="83" t="s">
+      <c r="I1" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="83" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="83" t="s">
+      <c r="K1" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="J1" s="83" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" s="83" t="s">
+      <c r="M1" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" s="83" t="s">
+      <c r="O1" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="83" t="s">
         <v>360</v>
       </c>
-      <c r="N1" s="83" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1" s="83" t="s">
+      <c r="Q1" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="P1" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q1" s="83" t="s">
+      <c r="S1" s="83" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="R1" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1" s="83" t="s">
+      <c r="U1" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="T1" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="U1" s="83" t="s">
+      <c r="W1" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="V1" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="W1" s="83" t="s">
+      <c r="Y1" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z1" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="X1" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y1" s="83" t="s">
+      <c r="AA1" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB1" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="Z1" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA1" s="83" t="s">
+      <c r="AC1" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="AB1" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="84"/>
+      <c r="AE1" s="83"/>
       <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
+      <c r="AG1" s="84"/>
       <c r="AH1" s="83"/>
       <c r="AI1" s="83"/>
       <c r="AJ1" s="83"/>
@@ -40696,125 +40730,131 @@
       <c r="AM1" s="83"/>
       <c r="AN1" s="83"/>
       <c r="AO1" s="83"/>
-    </row>
-    <row r="2" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" customHeight="1">
       <c r="A2" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B5</f>
         <v>Communication with impact</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="92">
         <f>VALUE(RIGHT(prep!A3, LEN(prep!A3) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C2" s="92">
+      <c r="E2" s="92">
         <f>VALUE(RIGHT(prep!B3, LEN(prep!B3) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D2" s="92" t="str">
-        <f t="shared" ref="D2:D41" si="0">IF(C2 &gt; B2, A2, "")</f>
-        <v/>
-      </c>
-      <c r="E2" s="92">
+      <c r="F2" s="92" t="str">
+        <f t="shared" ref="F2:F41" si="0">IF(E2 &gt; D2, A2, "")</f>
+        <v/>
+      </c>
+      <c r="G2" s="92">
         <f>VALUE(RIGHT(prep!C3, LEN(prep!C3) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F2" s="92" t="str">
-        <f t="shared" ref="F2:F41" si="1">IF(E2 &gt; $B2, A2, "")</f>
+      <c r="H2" s="92" t="str">
+        <f t="shared" ref="H2:H41" si="1">IF(G2 &gt; $D2, A2, "")</f>
         <v>Communication with impact</v>
       </c>
-      <c r="G2" s="92">
+      <c r="I2" s="92">
         <f>VALUE(RIGHT(prep!D3, LEN(prep!D3) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H2" s="92" t="str">
-        <f t="shared" ref="H2:H41" si="2">IF(G2 &gt; $B2, A2, "")</f>
+      <c r="J2" s="92" t="str">
+        <f t="shared" ref="J2:J41" si="2">IF(I2 &gt; $D2, A2, "")</f>
         <v>Communication with impact</v>
       </c>
-      <c r="I2" s="92">
+      <c r="K2" s="92">
         <f>VALUE(RIGHT(prep!E3, LEN(prep!E3) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="92" t="str">
-        <f t="shared" ref="J2:J41" si="3">IF(I2 &gt; $B2, $A2, "")</f>
-        <v/>
-      </c>
-      <c r="K2" s="92">
+      <c r="L2" s="92" t="str">
+        <f t="shared" ref="L2:L41" si="3">IF(K2 &gt; $D2, $A2, "")</f>
+        <v/>
+      </c>
+      <c r="M2" s="92">
         <f>VALUE(RIGHT(prep!F3, LEN(prep!F3) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L2" s="92" t="str">
-        <f t="shared" ref="L2:L41" si="4">IF(K2 &gt; $B2, $A2, "")</f>
-        <v/>
-      </c>
-      <c r="M2" s="92">
+      <c r="N2" s="92" t="str">
+        <f t="shared" ref="N2:N41" si="4">IF(M2 &gt; $D2, $A2, "")</f>
+        <v/>
+      </c>
+      <c r="O2" s="92">
         <f>VALUE(RIGHT(prep!G3, LEN(prep!G3) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N2" s="92" t="str">
-        <f t="shared" ref="N2:N41" si="5">IF(M2 &gt; $B2, $A2, "")</f>
-        <v/>
-      </c>
-      <c r="O2" s="92">
+      <c r="P2" s="92" t="str">
+        <f t="shared" ref="P2:P41" si="5">IF(O2 &gt; $D2, $A2, "")</f>
+        <v/>
+      </c>
+      <c r="Q2" s="92">
         <f>VALUE(RIGHT(prep!H3, LEN(prep!H3) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P2" s="92" t="str">
-        <f t="shared" ref="P2:P41" si="6">IF(O2 &gt; $B2, $A2, "")</f>
+      <c r="R2" s="92" t="str">
+        <f t="shared" ref="R2:R41" si="6">IF(Q2 &gt; $D2, $A2, "")</f>
         <v>Communication with impact</v>
       </c>
-      <c r="Q2" s="92">
+      <c r="S2" s="92">
         <f>VALUE(RIGHT(prep!I3, LEN(prep!I3) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R2" s="92" t="str">
-        <f t="shared" ref="R2:R41" si="7">IF(Q2 &gt; $B2, $A2, "")</f>
+      <c r="T2" s="92" t="str">
+        <f t="shared" ref="T2:T41" si="7">IF(S2 &gt; $D2, $A2, "")</f>
         <v>Communication with impact</v>
       </c>
-      <c r="S2" s="92">
+      <c r="U2" s="92">
         <f>VALUE(RIGHT(prep!J3, LEN(prep!J3) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T2" s="92" t="str">
-        <f t="shared" ref="T2:T41" si="8">IF(S2 &gt; $B2, $A2, "")</f>
-        <v/>
-      </c>
-      <c r="U2" s="92">
+      <c r="V2" s="92" t="str">
+        <f t="shared" ref="V2:V41" si="8">IF(U2 &gt; $D2, $A2, "")</f>
+        <v/>
+      </c>
+      <c r="W2" s="92">
         <f>VALUE(RIGHT(prep!K3, LEN(prep!K3) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V2" s="92" t="str">
-        <f t="shared" ref="V2:V41" si="9">IF(U2 &gt; $B2, $A2, "")</f>
-        <v/>
-      </c>
-      <c r="W2" s="92">
+      <c r="X2" s="92" t="str">
+        <f t="shared" ref="X2:X41" si="9">IF(W2 &gt; $D2, $A2, "")</f>
+        <v/>
+      </c>
+      <c r="Y2" s="92">
         <f>VALUE(RIGHT(prep!L3, LEN(prep!L3) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X2" s="92" t="str">
-        <f t="shared" ref="X2:X41" si="10">IF(W2 &gt; $B2, $A2, "")</f>
-        <v/>
-      </c>
-      <c r="Y2" s="92">
+      <c r="Z2" s="92" t="str">
+        <f t="shared" ref="Z2:Z41" si="10">IF(Y2 &gt; $D2, $A2, "")</f>
+        <v/>
+      </c>
+      <c r="AA2" s="92">
         <f>VALUE(RIGHT(prep!M3, LEN(prep!M3) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z2" s="92" t="str">
-        <f t="shared" ref="Z2:Z41" si="11">IF(Y2 &gt; $B2, $A2, "")</f>
+      <c r="AB2" s="92" t="str">
+        <f t="shared" ref="AB2:AB41" si="11">IF(AA2 &gt; $D2, $A2, "")</f>
         <v>Communication with impact</v>
       </c>
-      <c r="AA2" s="92">
+      <c r="AC2" s="92">
         <f>VALUE(RIGHT(prep!N3, LEN(prep!N3) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB2" s="92" t="str">
-        <f t="shared" ref="AB2:AB41" si="12">IF(AA2 &gt; $B2, $A2, "")</f>
+      <c r="AD2" s="92" t="str">
+        <f t="shared" ref="AD2:AD41" si="12">IF(AC2 &gt; $D2, $A2, "")</f>
         <v>Communication with impact</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AE2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
       <c r="AF2" s="66"/>
       <c r="AG2" s="66"/>
       <c r="AH2" s="66"/>
@@ -40825,125 +40865,131 @@
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
-    </row>
-    <row r="3" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+    </row>
+    <row r="3" spans="1:43" ht="15.75" customHeight="1">
       <c r="A3" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B6</f>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="85">
         <f>VALUE(RIGHT(prep!A4, LEN(prep!A4) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C3" s="85">
+      <c r="E3" s="85">
         <f>VALUE(RIGHT(prep!B4, LEN(prep!B4) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D3" s="85" t="str">
+      <c r="F3" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E3" s="85">
+      <c r="G3" s="85">
         <f>VALUE(RIGHT(prep!C4, LEN(prep!C4) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="str">
+      <c r="H3" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="G3" s="85">
+      <c r="I3" s="85">
         <f>VALUE(RIGHT(prep!D4, LEN(prep!D4) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H3" s="85" t="str">
+      <c r="J3" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="I3" s="85">
+      <c r="K3" s="85">
         <f>VALUE(RIGHT(prep!E4, LEN(prep!E4) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="85" t="str">
+      <c r="L3" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K3" s="85">
+      <c r="M3" s="85">
         <f>VALUE(RIGHT(prep!F4, LEN(prep!F4) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L3" s="85" t="str">
+      <c r="N3" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M3" s="85">
+      <c r="O3" s="85">
         <f>VALUE(RIGHT(prep!G4, LEN(prep!G4) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N3" s="85" t="str">
+      <c r="P3" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O3" s="85">
+      <c r="Q3" s="85">
         <f>VALUE(RIGHT(prep!H4, LEN(prep!H4) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P3" s="85" t="str">
+      <c r="R3" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="Q3" s="85">
+      <c r="S3" s="85">
         <f>VALUE(RIGHT(prep!I4, LEN(prep!I4) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R3" s="85" t="str">
+      <c r="T3" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="S3" s="85">
+      <c r="U3" s="85">
         <f>VALUE(RIGHT(prep!J4, LEN(prep!J4) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T3" s="85" t="str">
+      <c r="V3" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U3" s="85">
+      <c r="W3" s="85">
         <f>VALUE(RIGHT(prep!K4, LEN(prep!K4) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V3" s="85" t="str">
+      <c r="X3" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W3" s="85">
+      <c r="Y3" s="85">
         <f>VALUE(RIGHT(prep!L4, LEN(prep!L4) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X3" s="85" t="str">
+      <c r="Z3" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y3" s="85">
+      <c r="AA3" s="85">
         <f>VALUE(RIGHT(prep!M4, LEN(prep!M4) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z3" s="85" t="str">
+      <c r="AB3" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="AA3" s="85">
+      <c r="AC3" s="85">
         <f>VALUE(RIGHT(prep!N4, LEN(prep!N4) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB3" s="85" t="str">
+      <c r="AD3" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Problem solving and creativity</v>
       </c>
-      <c r="AC3" s="66" t="s">
+      <c r="AE3" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
       <c r="AF3" s="66"/>
       <c r="AG3" s="66"/>
       <c r="AH3" s="66"/>
@@ -40954,125 +41000,131 @@
       <c r="AM3" s="66"/>
       <c r="AN3" s="66"/>
       <c r="AO3" s="66"/>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+    </row>
+    <row r="4" spans="1:43" ht="15.75" customHeight="1">
       <c r="A4" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B7</f>
         <v>Deliver Quality on time</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="85">
         <f>VALUE(RIGHT(prep!A5, LEN(prep!A5) - 6))</f>
         <v>4</v>
       </c>
-      <c r="C4" s="85">
+      <c r="E4" s="85">
         <f>VALUE(RIGHT(prep!B5, LEN(prep!B5) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D4" s="85" t="str">
+      <c r="F4" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E4" s="85">
+      <c r="G4" s="85">
         <f>VALUE(RIGHT(prep!C5, LEN(prep!C5) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="str">
+      <c r="H4" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G4" s="85">
+      <c r="I4" s="85">
         <f>VALUE(RIGHT(prep!D5, LEN(prep!D5) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H4" s="85" t="str">
+      <c r="J4" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Deliver Quality on time</v>
       </c>
-      <c r="I4" s="85">
+      <c r="K4" s="85">
         <f>VALUE(RIGHT(prep!E5, LEN(prep!E5) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J4" s="85" t="str">
+      <c r="L4" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K4" s="85">
+      <c r="M4" s="85">
         <f>VALUE(RIGHT(prep!F5, LEN(prep!F5) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L4" s="85" t="str">
+      <c r="N4" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M4" s="85">
+      <c r="O4" s="85">
         <f>VALUE(RIGHT(prep!G5, LEN(prep!G5) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N4" s="85" t="str">
+      <c r="P4" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O4" s="85">
+      <c r="Q4" s="85">
         <f>VALUE(RIGHT(prep!H5, LEN(prep!H5) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P4" s="85" t="str">
+      <c r="R4" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q4" s="85">
+      <c r="S4" s="85">
         <f>VALUE(RIGHT(prep!I5, LEN(prep!I5) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R4" s="85" t="str">
+      <c r="T4" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Deliver Quality on time</v>
       </c>
-      <c r="S4" s="85">
+      <c r="U4" s="85">
         <f>VALUE(RIGHT(prep!J5, LEN(prep!J5) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T4" s="85" t="str">
+      <c r="V4" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U4" s="85">
+      <c r="W4" s="85">
         <f>VALUE(RIGHT(prep!K5, LEN(prep!K5) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V4" s="85" t="str">
+      <c r="X4" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W4" s="85">
+      <c r="Y4" s="85">
         <f>VALUE(RIGHT(prep!L5, LEN(prep!L5) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X4" s="85" t="str">
+      <c r="Z4" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y4" s="85">
+      <c r="AA4" s="85">
         <f>VALUE(RIGHT(prep!M5, LEN(prep!M5) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z4" s="85" t="str">
+      <c r="AB4" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA4" s="85">
+      <c r="AC4" s="85">
         <f>VALUE(RIGHT(prep!N5, LEN(prep!N5) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB4" s="85" t="str">
+      <c r="AD4" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Deliver Quality on time</v>
       </c>
-      <c r="AC4" s="66" t="s">
+      <c r="AE4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
       <c r="AF4" s="66"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="66"/>
@@ -41083,125 +41135,131 @@
       <c r="AM4" s="66"/>
       <c r="AN4" s="66"/>
       <c r="AO4" s="66"/>
-    </row>
-    <row r="5" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+    </row>
+    <row r="5" spans="1:43" ht="15.75" customHeight="1">
       <c r="A5" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B8</f>
         <v>Build &amp; maintain client relationship</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="85">
         <f>VALUE(RIGHT(prep!A6, LEN(prep!A6) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C5" s="85">
+      <c r="E5" s="85">
         <f>VALUE(RIGHT(prep!B6, LEN(prep!B6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D5" s="85" t="str">
+      <c r="F5" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E5" s="85">
+      <c r="G5" s="85">
         <f>VALUE(RIGHT(prep!C6, LEN(prep!C6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F5" s="85" t="str">
+      <c r="H5" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G5" s="85">
+      <c r="I5" s="85">
         <f>VALUE(RIGHT(prep!D6, LEN(prep!D6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="H5" s="85" t="str">
+      <c r="J5" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I5" s="85">
+      <c r="K5" s="85">
         <f>VALUE(RIGHT(prep!E6, LEN(prep!E6) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J5" s="85" t="str">
+      <c r="L5" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K5" s="85">
+      <c r="M5" s="85">
         <f>VALUE(RIGHT(prep!F6, LEN(prep!F6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L5" s="85" t="str">
+      <c r="N5" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M5" s="85">
+      <c r="O5" s="85">
         <f>VALUE(RIGHT(prep!G6, LEN(prep!G6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N5" s="85" t="str">
+      <c r="P5" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O5" s="85">
+      <c r="Q5" s="85">
         <f>VALUE(RIGHT(prep!H6, LEN(prep!H6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P5" s="85" t="str">
+      <c r="R5" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q5" s="85">
+      <c r="S5" s="85">
         <f>VALUE(RIGHT(prep!I6, LEN(prep!I6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="R5" s="85" t="str">
+      <c r="T5" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S5" s="85">
+      <c r="U5" s="85">
         <f>VALUE(RIGHT(prep!J6, LEN(prep!J6) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T5" s="85" t="str">
+      <c r="V5" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U5" s="85">
+      <c r="W5" s="85">
         <f>VALUE(RIGHT(prep!K6, LEN(prep!K6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V5" s="85" t="str">
+      <c r="X5" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W5" s="85">
+      <c r="Y5" s="85">
         <f>VALUE(RIGHT(prep!L6, LEN(prep!L6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X5" s="85" t="str">
+      <c r="Z5" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y5" s="85">
+      <c r="AA5" s="85">
         <f>VALUE(RIGHT(prep!M6, LEN(prep!M6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="85" t="str">
+      <c r="AB5" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA5" s="85">
+      <c r="AC5" s="85">
         <f>VALUE(RIGHT(prep!N6, LEN(prep!N6) - 6))</f>
         <v>2</v>
       </c>
-      <c r="AB5" s="85" t="str">
+      <c r="AD5" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC5" s="66" t="s">
+      <c r="AE5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
       <c r="AF5" s="66"/>
       <c r="AG5" s="66"/>
       <c r="AH5" s="66"/>
@@ -41212,125 +41270,131 @@
       <c r="AM5" s="66"/>
       <c r="AN5" s="66"/>
       <c r="AO5" s="66"/>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+    </row>
+    <row r="6" spans="1:43" ht="15.75" customHeight="1">
       <c r="A6" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B9</f>
         <v>Stakeholder Management</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="85">
         <f>VALUE(RIGHT(prep!A7, LEN(prep!A7) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C6" s="85">
+      <c r="E6" s="85">
         <f>VALUE(RIGHT(prep!B7, LEN(prep!B7) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D6" s="85" t="str">
+      <c r="F6" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E6" s="85">
+      <c r="G6" s="85">
         <f>VALUE(RIGHT(prep!C7, LEN(prep!C7) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F6" s="85" t="str">
+      <c r="H6" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Stakeholder Management</v>
       </c>
-      <c r="G6" s="85">
+      <c r="I6" s="85">
         <f>VALUE(RIGHT(prep!D7, LEN(prep!D7) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H6" s="85" t="str">
+      <c r="J6" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Stakeholder Management</v>
       </c>
-      <c r="I6" s="85">
+      <c r="K6" s="85">
         <f>VALUE(RIGHT(prep!E7, LEN(prep!E7) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J6" s="85" t="str">
+      <c r="L6" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K6" s="85">
+      <c r="M6" s="85">
         <f>VALUE(RIGHT(prep!F7, LEN(prep!F7) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L6" s="85" t="str">
+      <c r="N6" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M6" s="85">
+      <c r="O6" s="85">
         <f>VALUE(RIGHT(prep!G7, LEN(prep!G7) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N6" s="85" t="str">
+      <c r="P6" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O6" s="85">
+      <c r="Q6" s="85">
         <f>VALUE(RIGHT(prep!H7, LEN(prep!H7) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P6" s="85" t="str">
+      <c r="R6" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Stakeholder Management</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="S6" s="85">
         <f>VALUE(RIGHT(prep!I7, LEN(prep!I7) - 6))</f>
         <v>4</v>
       </c>
-      <c r="R6" s="85" t="str">
+      <c r="T6" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Stakeholder Management</v>
       </c>
-      <c r="S6" s="85">
+      <c r="U6" s="85">
         <f>VALUE(RIGHT(prep!J7, LEN(prep!J7) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T6" s="85" t="str">
+      <c r="V6" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U6" s="85">
+      <c r="W6" s="85">
         <f>VALUE(RIGHT(prep!K7, LEN(prep!K7) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V6" s="85" t="str">
+      <c r="X6" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W6" s="85">
+      <c r="Y6" s="85">
         <f>VALUE(RIGHT(prep!L7, LEN(prep!L7) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X6" s="85" t="str">
+      <c r="Z6" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y6" s="85">
+      <c r="AA6" s="85">
         <f>VALUE(RIGHT(prep!M7, LEN(prep!M7) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z6" s="85" t="str">
+      <c r="AB6" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Stakeholder Management</v>
       </c>
-      <c r="AA6" s="85">
+      <c r="AC6" s="85">
         <f>VALUE(RIGHT(prep!N7, LEN(prep!N7) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB6" s="85" t="str">
+      <c r="AD6" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Stakeholder Management</v>
       </c>
-      <c r="AC6" s="66" t="s">
+      <c r="AE6" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
       <c r="AF6" s="66"/>
       <c r="AG6" s="66"/>
       <c r="AH6" s="66"/>
@@ -41341,125 +41405,131 @@
       <c r="AM6" s="66"/>
       <c r="AN6" s="66"/>
       <c r="AO6" s="66"/>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+    </row>
+    <row r="7" spans="1:43" ht="15.75" customHeight="1">
       <c r="A7" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B10</f>
         <v>Lead and Inspire</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="85">
         <f>VALUE(RIGHT(prep!A8, LEN(prep!A8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C7" s="85">
+      <c r="E7" s="85">
         <f>VALUE(RIGHT(prep!B8, LEN(prep!B8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D7" s="85" t="str">
+      <c r="F7" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="85">
+      <c r="G7" s="85">
         <f>VALUE(RIGHT(prep!C8, LEN(prep!C8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F7" s="85" t="str">
+      <c r="H7" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="85">
+      <c r="I7" s="85">
         <f>VALUE(RIGHT(prep!D8, LEN(prep!D8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H7" s="85" t="str">
+      <c r="J7" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I7" s="85">
+      <c r="K7" s="85">
         <f>VALUE(RIGHT(prep!E8, LEN(prep!E8) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J7" s="85" t="str">
+      <c r="L7" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K7" s="85">
+      <c r="M7" s="85">
         <f>VALUE(RIGHT(prep!F8, LEN(prep!F8) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L7" s="85" t="str">
+      <c r="N7" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M7" s="85">
+      <c r="O7" s="85">
         <f>VALUE(RIGHT(prep!G8, LEN(prep!G8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N7" s="85" t="str">
+      <c r="P7" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O7" s="85">
+      <c r="Q7" s="85">
         <f>VALUE(RIGHT(prep!H8, LEN(prep!H8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="P7" s="85" t="str">
+      <c r="R7" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q7" s="85">
+      <c r="S7" s="85">
         <f>VALUE(RIGHT(prep!I8, LEN(prep!I8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R7" s="85" t="str">
+      <c r="T7" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S7" s="85">
+      <c r="U7" s="85">
         <f>VALUE(RIGHT(prep!J8, LEN(prep!J8) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T7" s="85" t="str">
+      <c r="V7" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U7" s="85">
+      <c r="W7" s="85">
         <f>VALUE(RIGHT(prep!K8, LEN(prep!K8) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V7" s="85" t="str">
+      <c r="X7" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W7" s="85">
+      <c r="Y7" s="85">
         <f>VALUE(RIGHT(prep!L8, LEN(prep!L8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X7" s="85" t="str">
+      <c r="Z7" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y7" s="85">
+      <c r="AA7" s="85">
         <f>VALUE(RIGHT(prep!M8, LEN(prep!M8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z7" s="85" t="str">
+      <c r="AB7" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA7" s="85">
+      <c r="AC7" s="85">
         <f>VALUE(RIGHT(prep!N8, LEN(prep!N8) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB7" s="85" t="str">
+      <c r="AD7" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC7" s="66" t="s">
+      <c r="AE7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
       <c r="AF7" s="66"/>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
@@ -41470,125 +41540,131 @@
       <c r="AM7" s="66"/>
       <c r="AN7" s="66"/>
       <c r="AO7" s="66"/>
-    </row>
-    <row r="8" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+    </row>
+    <row r="8" spans="1:43" ht="15.75" customHeight="1">
       <c r="A8" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B11</f>
         <v>People Management</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="85">
         <f>VALUE(RIGHT(prep!A9, LEN(prep!A9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C8" s="85">
+      <c r="E8" s="85">
         <f>VALUE(RIGHT(prep!B9, LEN(prep!B9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="F8" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="85">
+      <c r="G8" s="85">
         <f>VALUE(RIGHT(prep!C9, LEN(prep!C9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F8" s="85" t="str">
+      <c r="H8" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="85">
+      <c r="I8" s="85">
         <f>VALUE(RIGHT(prep!D9, LEN(prep!D9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H8" s="85" t="str">
+      <c r="J8" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" s="85">
+      <c r="K8" s="85">
         <f>VALUE(RIGHT(prep!E9, LEN(prep!E9) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J8" s="85" t="str">
+      <c r="L8" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" s="85">
+      <c r="M8" s="85">
         <f>VALUE(RIGHT(prep!F9, LEN(prep!F9) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L8" s="85" t="str">
+      <c r="N8" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M8" s="85">
+      <c r="O8" s="85">
         <f>VALUE(RIGHT(prep!G9, LEN(prep!G9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N8" s="85" t="str">
+      <c r="P8" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O8" s="85">
+      <c r="Q8" s="85">
         <f>VALUE(RIGHT(prep!H9, LEN(prep!H9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="P8" s="85" t="str">
+      <c r="R8" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q8" s="85">
+      <c r="S8" s="85">
         <f>VALUE(RIGHT(prep!I9, LEN(prep!I9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R8" s="85" t="str">
+      <c r="T8" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S8" s="85">
+      <c r="U8" s="85">
         <f>VALUE(RIGHT(prep!J9, LEN(prep!J9) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T8" s="85" t="str">
+      <c r="V8" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U8" s="85">
+      <c r="W8" s="85">
         <f>VALUE(RIGHT(prep!K9, LEN(prep!K9) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V8" s="85" t="str">
+      <c r="X8" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W8" s="85">
+      <c r="Y8" s="85">
         <f>VALUE(RIGHT(prep!L9, LEN(prep!L9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X8" s="85" t="str">
+      <c r="Z8" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y8" s="85">
+      <c r="AA8" s="85">
         <f>VALUE(RIGHT(prep!M9, LEN(prep!M9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z8" s="85" t="str">
+      <c r="AB8" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA8" s="85">
+      <c r="AC8" s="85">
         <f>VALUE(RIGHT(prep!N9, LEN(prep!N9) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB8" s="85" t="str">
+      <c r="AD8" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC8" s="66" t="s">
+      <c r="AE8" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
       <c r="AF8" s="66"/>
       <c r="AG8" s="66"/>
       <c r="AH8" s="66"/>
@@ -41599,125 +41675,131 @@
       <c r="AM8" s="66"/>
       <c r="AN8" s="66"/>
       <c r="AO8" s="66"/>
-    </row>
-    <row r="9" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+    </row>
+    <row r="9" spans="1:43" ht="15.75" customHeight="1">
       <c r="A9" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B12</f>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="85">
         <f>VALUE(RIGHT(prep!A10, LEN(prep!A10) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C9" s="85">
+      <c r="E9" s="85">
         <f>VALUE(RIGHT(prep!B10, LEN(prep!B10) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D9" s="85" t="str">
+      <c r="F9" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="85">
+      <c r="G9" s="85">
         <f>VALUE(RIGHT(prep!C10, LEN(prep!C10) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F9" s="85" t="str">
+      <c r="H9" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="G9" s="85">
+      <c r="I9" s="85">
         <f>VALUE(RIGHT(prep!D10, LEN(prep!D10) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H9" s="85" t="str">
+      <c r="J9" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="I9" s="85">
+      <c r="K9" s="85">
         <f>VALUE(RIGHT(prep!E10, LEN(prep!E10) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J9" s="85" t="str">
+      <c r="L9" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K9" s="85">
+      <c r="M9" s="85">
         <f>VALUE(RIGHT(prep!F10, LEN(prep!F10) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L9" s="85" t="str">
+      <c r="N9" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M9" s="85">
+      <c r="O9" s="85">
         <f>VALUE(RIGHT(prep!G10, LEN(prep!G10) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N9" s="85" t="str">
+      <c r="P9" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O9" s="85">
+      <c r="Q9" s="85">
         <f>VALUE(RIGHT(prep!H10, LEN(prep!H10) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P9" s="85" t="str">
+      <c r="R9" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="S9" s="85">
         <f>VALUE(RIGHT(prep!I10, LEN(prep!I10) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R9" s="85" t="str">
+      <c r="T9" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="S9" s="85">
+      <c r="U9" s="85">
         <f>VALUE(RIGHT(prep!J10, LEN(prep!J10) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T9" s="85" t="str">
+      <c r="V9" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U9" s="85">
+      <c r="W9" s="85">
         <f>VALUE(RIGHT(prep!K10, LEN(prep!K10) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V9" s="85" t="str">
+      <c r="X9" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W9" s="85">
+      <c r="Y9" s="85">
         <f>VALUE(RIGHT(prep!L10, LEN(prep!L10) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X9" s="85" t="str">
+      <c r="Z9" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y9" s="85">
+      <c r="AA9" s="85">
         <f>VALUE(RIGHT(prep!M10, LEN(prep!M10) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z9" s="85" t="str">
+      <c r="AB9" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="AA9" s="85">
+      <c r="AC9" s="85">
         <f>VALUE(RIGHT(prep!N10, LEN(prep!N10) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB9" s="85" t="str">
+      <c r="AD9" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Team Spirit and Ambassadorship</v>
       </c>
-      <c r="AC9" s="66" t="s">
+      <c r="AE9" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
       <c r="AF9" s="66"/>
       <c r="AG9" s="66"/>
       <c r="AH9" s="66"/>
@@ -41728,125 +41810,131 @@
       <c r="AM9" s="66"/>
       <c r="AN9" s="66"/>
       <c r="AO9" s="66"/>
-    </row>
-    <row r="10" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+    </row>
+    <row r="10" spans="1:43" ht="15.75" customHeight="1">
       <c r="A10" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B13</f>
         <v>Continuous Learning</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="85">
         <f>VALUE(RIGHT(prep!A11, LEN(prep!A11) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C10" s="85">
+      <c r="E10" s="85">
         <f>VALUE(RIGHT(prep!B11, LEN(prep!B11) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D10" s="85" t="str">
+      <c r="F10" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="85">
+      <c r="G10" s="85">
         <f>VALUE(RIGHT(prep!C11, LEN(prep!C11) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F10" s="85" t="str">
+      <c r="H10" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Continuous Learning</v>
       </c>
-      <c r="G10" s="85">
+      <c r="I10" s="85">
         <f>VALUE(RIGHT(prep!D11, LEN(prep!D11) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H10" s="85" t="str">
+      <c r="J10" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Continuous Learning</v>
       </c>
-      <c r="I10" s="85">
+      <c r="K10" s="85">
         <f>VALUE(RIGHT(prep!E11, LEN(prep!E11) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J10" s="85" t="str">
+      <c r="L10" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K10" s="85">
+      <c r="M10" s="85">
         <f>VALUE(RIGHT(prep!F11, LEN(prep!F11) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L10" s="85" t="str">
+      <c r="N10" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M10" s="85">
+      <c r="O10" s="85">
         <f>VALUE(RIGHT(prep!G11, LEN(prep!G11) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N10" s="85" t="str">
+      <c r="P10" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O10" s="85">
+      <c r="Q10" s="85">
         <f>VALUE(RIGHT(prep!H11, LEN(prep!H11) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P10" s="85" t="str">
+      <c r="R10" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Continuous Learning</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="S10" s="85">
         <f>VALUE(RIGHT(prep!I11, LEN(prep!I11) - 6))</f>
         <v>4</v>
       </c>
-      <c r="R10" s="85" t="str">
+      <c r="T10" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Continuous Learning</v>
       </c>
-      <c r="S10" s="85">
+      <c r="U10" s="85">
         <f>VALUE(RIGHT(prep!J11, LEN(prep!J11) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T10" s="85" t="str">
+      <c r="V10" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U10" s="85">
+      <c r="W10" s="85">
         <f>VALUE(RIGHT(prep!K11, LEN(prep!K11) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V10" s="85" t="str">
+      <c r="X10" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W10" s="85">
+      <c r="Y10" s="85">
         <f>VALUE(RIGHT(prep!L11, LEN(prep!L11) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X10" s="85" t="str">
+      <c r="Z10" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y10" s="85">
+      <c r="AA10" s="85">
         <f>VALUE(RIGHT(prep!M11, LEN(prep!M11) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z10" s="85" t="str">
+      <c r="AB10" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Continuous Learning</v>
       </c>
-      <c r="AA10" s="85">
+      <c r="AC10" s="85">
         <f>VALUE(RIGHT(prep!N11, LEN(prep!N11) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB10" s="85" t="str">
+      <c r="AD10" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Continuous Learning</v>
       </c>
-      <c r="AC10" s="66" t="s">
+      <c r="AE10" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
       <c r="AF10" s="66"/>
       <c r="AG10" s="66"/>
       <c r="AH10" s="66"/>
@@ -41857,125 +41945,131 @@
       <c r="AM10" s="66"/>
       <c r="AN10" s="66"/>
       <c r="AO10" s="66"/>
-    </row>
-    <row r="11" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+    </row>
+    <row r="11" spans="1:43" ht="15.75" customHeight="1">
       <c r="A11" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B14</f>
         <v>Contribution to data community</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="85">
         <f>VALUE(RIGHT(prep!A12, LEN(prep!A12) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C11" s="85">
+      <c r="E11" s="85">
         <f>VALUE(RIGHT(prep!B12, LEN(prep!B12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D11" s="85" t="str">
+      <c r="F11" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="E11" s="85">
+      <c r="G11" s="85">
         <f>VALUE(RIGHT(prep!C12, LEN(prep!C12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F11" s="85" t="str">
+      <c r="H11" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="G11" s="85">
+      <c r="I11" s="85">
         <f>VALUE(RIGHT(prep!D12, LEN(prep!D12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H11" s="85" t="str">
+      <c r="J11" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="I11" s="85">
+      <c r="K11" s="85">
         <f>VALUE(RIGHT(prep!E12, LEN(prep!E12) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J11" s="85" t="str">
+      <c r="L11" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K11" s="85">
+      <c r="M11" s="85">
         <f>VALUE(RIGHT(prep!F12, LEN(prep!F12) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L11" s="85" t="str">
+      <c r="N11" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M11" s="85">
+      <c r="O11" s="85">
         <f>VALUE(RIGHT(prep!G12, LEN(prep!G12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N11" s="85" t="str">
+      <c r="P11" s="85" t="str">
         <f t="shared" si="5"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="O11" s="85">
+      <c r="Q11" s="85">
         <f>VALUE(RIGHT(prep!H12, LEN(prep!H12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="P11" s="85" t="str">
+      <c r="R11" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="S11" s="85">
         <f>VALUE(RIGHT(prep!I12, LEN(prep!I12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R11" s="85" t="str">
+      <c r="T11" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="S11" s="85">
+      <c r="U11" s="85">
         <f>VALUE(RIGHT(prep!J12, LEN(prep!J12) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T11" s="85" t="str">
+      <c r="V11" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U11" s="85">
+      <c r="W11" s="85">
         <f>VALUE(RIGHT(prep!K12, LEN(prep!K12) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V11" s="85" t="str">
+      <c r="X11" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W11" s="85">
+      <c r="Y11" s="85">
         <f>VALUE(RIGHT(prep!L12, LEN(prep!L12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X11" s="85" t="str">
+      <c r="Z11" s="85" t="str">
         <f t="shared" si="10"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="Y11" s="85">
+      <c r="AA11" s="85">
         <f>VALUE(RIGHT(prep!M12, LEN(prep!M12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z11" s="85" t="str">
+      <c r="AB11" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="AA11" s="85">
+      <c r="AC11" s="85">
         <f>VALUE(RIGHT(prep!N12, LEN(prep!N12) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB11" s="85" t="str">
+      <c r="AD11" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Contribution to data community</v>
       </c>
-      <c r="AC11" s="66" t="s">
+      <c r="AE11" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
       <c r="AF11" s="66"/>
       <c r="AG11" s="66"/>
       <c r="AH11" s="66"/>
@@ -41986,125 +42080,131 @@
       <c r="AM11" s="66"/>
       <c r="AN11" s="66"/>
       <c r="AO11" s="66"/>
-    </row>
-    <row r="12" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+    </row>
+    <row r="12" spans="1:43" ht="15.75" customHeight="1">
       <c r="A12" s="91" t="str">
         <f>'Self-Assessment - Consulting Sk'!B15</f>
         <v>Spotting &amp; acting on opportunities for growth</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="93">
         <f>VALUE(RIGHT(prep!A13, LEN(prep!A13) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C12" s="85">
+      <c r="E12" s="85">
         <f>VALUE(RIGHT(prep!B13, LEN(prep!B13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D12" s="85" t="str">
+      <c r="F12" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="85">
+      <c r="G12" s="85">
         <f>VALUE(RIGHT(prep!C13, LEN(prep!C13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="85" t="str">
+      <c r="H12" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="85">
+      <c r="I12" s="85">
         <f>VALUE(RIGHT(prep!D13, LEN(prep!D13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="H12" s="85" t="str">
+      <c r="J12" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="85">
+      <c r="K12" s="85">
         <f>VALUE(RIGHT(prep!E13, LEN(prep!E13) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J12" s="85" t="str">
+      <c r="L12" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K12" s="85">
+      <c r="M12" s="85">
         <f>VALUE(RIGHT(prep!F13, LEN(prep!F13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L12" s="85" t="str">
+      <c r="N12" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M12" s="85">
+      <c r="O12" s="85">
         <f>VALUE(RIGHT(prep!G13, LEN(prep!G13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N12" s="85" t="str">
+      <c r="P12" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O12" s="85">
+      <c r="Q12" s="85">
         <f>VALUE(RIGHT(prep!H13, LEN(prep!H13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P12" s="85" t="str">
+      <c r="R12" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q12" s="85">
+      <c r="S12" s="85">
         <f>VALUE(RIGHT(prep!I13, LEN(prep!I13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="R12" s="85" t="str">
+      <c r="T12" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S12" s="85">
+      <c r="U12" s="85">
         <f>VALUE(RIGHT(prep!J13, LEN(prep!J13) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T12" s="85" t="str">
+      <c r="V12" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U12" s="85">
+      <c r="W12" s="85">
         <f>VALUE(RIGHT(prep!K13, LEN(prep!K13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V12" s="85" t="str">
+      <c r="X12" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W12" s="85">
+      <c r="Y12" s="85">
         <f>VALUE(RIGHT(prep!L13, LEN(prep!L13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X12" s="85" t="str">
+      <c r="Z12" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y12" s="85">
+      <c r="AA12" s="85">
         <f>VALUE(RIGHT(prep!M13, LEN(prep!M13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z12" s="85" t="str">
+      <c r="AB12" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA12" s="85">
+      <c r="AC12" s="85">
         <f>VALUE(RIGHT(prep!N13, LEN(prep!N13) - 6))</f>
         <v>2</v>
       </c>
-      <c r="AB12" s="85" t="str">
+      <c r="AD12" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC12" s="66" t="s">
+      <c r="AE12" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
       <c r="AF12" s="66"/>
       <c r="AG12" s="66"/>
       <c r="AH12" s="66"/>
@@ -42115,125 +42215,132 @@
       <c r="AM12" s="66"/>
       <c r="AN12" s="66"/>
       <c r="AO12" s="66"/>
-    </row>
-    <row r="13" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" customHeight="1">
       <c r="A13" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B5</f>
         <v>Coordination</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="91" t="str">
+        <f>'BU Skills'!A4</f>
+        <v>Coordination</v>
+      </c>
+      <c r="D13" s="85">
         <f>VALUE(RIGHT(prep!A14, LEN(prep!A14) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C13" s="85">
+      <c r="E13" s="85">
         <f>VALUE(RIGHT(prep!B14, LEN(prep!B14) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D13" s="85" t="str">
+      <c r="F13" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Coordination</v>
       </c>
-      <c r="E13" s="85">
+      <c r="G13" s="85">
         <f>VALUE(RIGHT(prep!C14, LEN(prep!C14) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F13" s="85" t="str">
+      <c r="H13" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Coordination</v>
       </c>
-      <c r="G13" s="85">
+      <c r="I13" s="85">
         <f>VALUE(RIGHT(prep!D14, LEN(prep!D14) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H13" s="85" t="str">
+      <c r="J13" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Coordination</v>
       </c>
-      <c r="I13" s="85">
+      <c r="K13" s="85">
         <f>VALUE(RIGHT(prep!E14, LEN(prep!E14) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J13" s="85" t="str">
+      <c r="L13" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="85">
+      <c r="M13" s="85">
         <f>VALUE(RIGHT(prep!F14, LEN(prep!F14) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L13" s="85" t="str">
+      <c r="N13" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="85">
+      <c r="O13" s="85">
         <f>VALUE(RIGHT(prep!G14, LEN(prep!G14) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N13" s="85" t="str">
+      <c r="P13" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O13" s="85">
+      <c r="Q13" s="85">
         <f>VALUE(RIGHT(prep!H14, LEN(prep!H14) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P13" s="85" t="str">
+      <c r="R13" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q13" s="85">
+      <c r="S13" s="85">
         <f>VALUE(RIGHT(prep!I14, LEN(prep!I14) - 6))</f>
         <v>2</v>
       </c>
-      <c r="R13" s="85" t="str">
+      <c r="T13" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S13" s="85">
+      <c r="U13" s="85">
         <f>VALUE(RIGHT(prep!J14, LEN(prep!J14) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T13" s="85" t="str">
+      <c r="V13" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U13" s="85">
+      <c r="W13" s="85">
         <f>VALUE(RIGHT(prep!K14, LEN(prep!K14) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V13" s="85" t="str">
+      <c r="X13" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W13" s="85">
+      <c r="Y13" s="85">
         <f>VALUE(RIGHT(prep!L14, LEN(prep!L14) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X13" s="85" t="str">
+      <c r="Z13" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y13" s="85">
+      <c r="AA13" s="85">
         <f>VALUE(RIGHT(prep!M14, LEN(prep!M14) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z13" s="85" t="str">
+      <c r="AB13" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA13" s="85">
+      <c r="AC13" s="85">
         <f>VALUE(RIGHT(prep!N14, LEN(prep!N14) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB13" s="85" t="str">
+      <c r="AD13" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Coordination</v>
       </c>
-      <c r="AC13" s="66" t="s">
+      <c r="AE13" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
       <c r="AF13" s="66"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="66"/>
@@ -42244,125 +42351,131 @@
       <c r="AM13" s="66"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="66"/>
-    </row>
-    <row r="14" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+    </row>
+    <row r="14" spans="1:43" ht="15.75" customHeight="1">
       <c r="A14" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B6</f>
         <v>Functional Analysis</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="85">
         <f>VALUE(RIGHT(prep!A15, LEN(prep!A15) - 6))</f>
         <v>5</v>
       </c>
-      <c r="C14" s="85">
+      <c r="E14" s="85">
         <f>VALUE(RIGHT(prep!B15, LEN(prep!B15) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D14" s="85" t="str">
+      <c r="F14" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E14" s="85">
+      <c r="G14" s="85">
         <f>VALUE(RIGHT(prep!C15, LEN(prep!C15) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F14" s="85" t="str">
+      <c r="H14" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="85">
+      <c r="I14" s="85">
         <f>VALUE(RIGHT(prep!D15, LEN(prep!D15) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H14" s="85" t="str">
+      <c r="J14" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" s="85">
+      <c r="K14" s="85">
         <f>VALUE(RIGHT(prep!E15, LEN(prep!E15) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J14" s="85" t="str">
+      <c r="L14" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K14" s="85">
+      <c r="M14" s="85">
         <f>VALUE(RIGHT(prep!F15, LEN(prep!F15) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L14" s="85" t="str">
+      <c r="N14" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="85">
+      <c r="O14" s="85">
         <f>VALUE(RIGHT(prep!G15, LEN(prep!G15) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N14" s="85" t="str">
+      <c r="P14" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O14" s="85">
+      <c r="Q14" s="85">
         <f>VALUE(RIGHT(prep!H15, LEN(prep!H15) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P14" s="85" t="str">
+      <c r="R14" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q14" s="85">
+      <c r="S14" s="85">
         <f>VALUE(RIGHT(prep!I15, LEN(prep!I15) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R14" s="85" t="str">
+      <c r="T14" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S14" s="85">
+      <c r="U14" s="85">
         <f>VALUE(RIGHT(prep!J15, LEN(prep!J15) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T14" s="85" t="str">
+      <c r="V14" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U14" s="85">
+      <c r="W14" s="85">
         <f>VALUE(RIGHT(prep!K15, LEN(prep!K15) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V14" s="85" t="str">
+      <c r="X14" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W14" s="85">
+      <c r="Y14" s="85">
         <f>VALUE(RIGHT(prep!L15, LEN(prep!L15) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X14" s="85" t="str">
+      <c r="Z14" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y14" s="85">
+      <c r="AA14" s="85">
         <f>VALUE(RIGHT(prep!M15, LEN(prep!M15) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z14" s="85" t="str">
+      <c r="AB14" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA14" s="85">
+      <c r="AC14" s="85">
         <f>VALUE(RIGHT(prep!N15, LEN(prep!N15) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB14" s="85" t="str">
+      <c r="AD14" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC14" s="66" t="s">
+      <c r="AE14" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
       <c r="AF14" s="66"/>
       <c r="AG14" s="66"/>
       <c r="AH14" s="66"/>
@@ -42373,125 +42486,131 @@
       <c r="AM14" s="66"/>
       <c r="AN14" s="66"/>
       <c r="AO14" s="66"/>
-    </row>
-    <row r="15" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+    </row>
+    <row r="15" spans="1:43" ht="15.75" customHeight="1">
       <c r="A15" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B7</f>
         <v>Data Quality (Data Management)</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="85">
         <f>VALUE(RIGHT(prep!A16, LEN(prep!A16) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C15" s="85">
+      <c r="E15" s="85">
         <f>VALUE(RIGHT(prep!B16, LEN(prep!B16) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D15" s="85" t="str">
+      <c r="F15" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E15" s="85">
+      <c r="G15" s="85">
         <f>VALUE(RIGHT(prep!C16, LEN(prep!C16) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F15" s="85" t="str">
+      <c r="H15" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="85">
+      <c r="I15" s="85">
         <f>VALUE(RIGHT(prep!D16, LEN(prep!D16) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H15" s="85" t="str">
+      <c r="J15" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Data Quality (Data Management)</v>
       </c>
-      <c r="I15" s="85">
+      <c r="K15" s="85">
         <f>VALUE(RIGHT(prep!E16, LEN(prep!E16) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J15" s="85" t="str">
+      <c r="L15" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K15" s="85">
+      <c r="M15" s="85">
         <f>VALUE(RIGHT(prep!F16, LEN(prep!F16) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L15" s="85" t="str">
+      <c r="N15" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M15" s="85">
+      <c r="O15" s="85">
         <f>VALUE(RIGHT(prep!G16, LEN(prep!G16) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N15" s="85" t="str">
+      <c r="P15" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O15" s="85">
+      <c r="Q15" s="85">
         <f>VALUE(RIGHT(prep!H16, LEN(prep!H16) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P15" s="85" t="str">
+      <c r="R15" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Data Quality (Data Management)</v>
       </c>
-      <c r="Q15" s="85">
+      <c r="S15" s="85">
         <f>VALUE(RIGHT(prep!I16, LEN(prep!I16) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R15" s="85" t="str">
+      <c r="T15" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Data Quality (Data Management)</v>
       </c>
-      <c r="S15" s="85">
+      <c r="U15" s="85">
         <f>VALUE(RIGHT(prep!J16, LEN(prep!J16) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T15" s="85" t="str">
+      <c r="V15" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U15" s="85">
+      <c r="W15" s="85">
         <f>VALUE(RIGHT(prep!K16, LEN(prep!K16) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V15" s="85" t="str">
+      <c r="X15" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W15" s="85">
+      <c r="Y15" s="85">
         <f>VALUE(RIGHT(prep!L16, LEN(prep!L16) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X15" s="85" t="str">
+      <c r="Z15" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y15" s="85">
+      <c r="AA15" s="85">
         <f>VALUE(RIGHT(prep!M16, LEN(prep!M16) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z15" s="85" t="str">
+      <c r="AB15" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Data Quality (Data Management)</v>
       </c>
-      <c r="AA15" s="85">
+      <c r="AC15" s="85">
         <f>VALUE(RIGHT(prep!N16, LEN(prep!N16) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB15" s="85" t="str">
+      <c r="AD15" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Data Quality (Data Management)</v>
       </c>
-      <c r="AC15" s="66" t="s">
+      <c r="AE15" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
       <c r="AF15" s="66"/>
       <c r="AG15" s="66"/>
       <c r="AH15" s="66"/>
@@ -42502,125 +42621,131 @@
       <c r="AM15" s="66"/>
       <c r="AN15" s="66"/>
       <c r="AO15" s="66"/>
-    </row>
-    <row r="16" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+    </row>
+    <row r="16" spans="1:43" ht="15.75" customHeight="1">
       <c r="A16" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B8</f>
         <v>Data Modeling (Data Management)</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="85">
         <f>VALUE(RIGHT(prep!A17, LEN(prep!A17) - 6))</f>
         <v>4</v>
       </c>
-      <c r="C16" s="85">
+      <c r="E16" s="85">
         <f>VALUE(RIGHT(prep!B17, LEN(prep!B17) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D16" s="85" t="str">
+      <c r="F16" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="85">
+      <c r="G16" s="85">
         <f>VALUE(RIGHT(prep!C17, LEN(prep!C17) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F16" s="85" t="str">
+      <c r="H16" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="85">
+      <c r="I16" s="85">
         <f>VALUE(RIGHT(prep!D17, LEN(prep!D17) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H16" s="85" t="str">
+      <c r="J16" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I16" s="85">
+      <c r="K16" s="85">
         <f>VALUE(RIGHT(prep!E17, LEN(prep!E17) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J16" s="85" t="str">
+      <c r="L16" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K16" s="85">
+      <c r="M16" s="85">
         <f>VALUE(RIGHT(prep!F17, LEN(prep!F17) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L16" s="85" t="str">
+      <c r="N16" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M16" s="85">
+      <c r="O16" s="85">
         <f>VALUE(RIGHT(prep!G17, LEN(prep!G17) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N16" s="85" t="str">
+      <c r="P16" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O16" s="85">
+      <c r="Q16" s="85">
         <f>VALUE(RIGHT(prep!H17, LEN(prep!H17) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P16" s="85" t="str">
+      <c r="R16" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q16" s="85">
+      <c r="S16" s="85">
         <f>VALUE(RIGHT(prep!I17, LEN(prep!I17) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R16" s="85" t="str">
+      <c r="T16" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Data Modeling (Data Management)</v>
       </c>
-      <c r="S16" s="85">
+      <c r="U16" s="85">
         <f>VALUE(RIGHT(prep!J17, LEN(prep!J17) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T16" s="85" t="str">
+      <c r="V16" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U16" s="85">
+      <c r="W16" s="85">
         <f>VALUE(RIGHT(prep!K17, LEN(prep!K17) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V16" s="85" t="str">
+      <c r="X16" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W16" s="85">
+      <c r="Y16" s="85">
         <f>VALUE(RIGHT(prep!L17, LEN(prep!L17) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X16" s="85" t="str">
+      <c r="Z16" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y16" s="85">
+      <c r="AA16" s="85">
         <f>VALUE(RIGHT(prep!M17, LEN(prep!M17) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z16" s="85" t="str">
+      <c r="AB16" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA16" s="85">
+      <c r="AC16" s="85">
         <f>VALUE(RIGHT(prep!N17, LEN(prep!N17) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB16" s="85" t="str">
+      <c r="AD16" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Data Modeling (Data Management)</v>
       </c>
-      <c r="AC16" s="66" t="s">
+      <c r="AE16" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
       <c r="AF16" s="66"/>
       <c r="AG16" s="66"/>
       <c r="AH16" s="66"/>
@@ -42631,125 +42756,131 @@
       <c r="AM16" s="66"/>
       <c r="AN16" s="66"/>
       <c r="AO16" s="66"/>
-    </row>
-    <row r="17" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+    </row>
+    <row r="17" spans="1:43" ht="15.75" customHeight="1">
       <c r="A17" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B9</f>
         <v>Data Analysis</v>
       </c>
-      <c r="B17" s="85">
+      <c r="B17" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="85">
         <f>VALUE(RIGHT(prep!A18, LEN(prep!A18) - 6))</f>
         <v>5</v>
       </c>
-      <c r="C17" s="85">
+      <c r="E17" s="85">
         <f>VALUE(RIGHT(prep!B18, LEN(prep!B18) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D17" s="85" t="str">
+      <c r="F17" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E17" s="85">
+      <c r="G17" s="85">
         <f>VALUE(RIGHT(prep!C18, LEN(prep!C18) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F17" s="85" t="str">
+      <c r="H17" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="85">
+      <c r="I17" s="85">
         <f>VALUE(RIGHT(prep!D18, LEN(prep!D18) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H17" s="85" t="str">
+      <c r="J17" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I17" s="85">
+      <c r="K17" s="85">
         <f>VALUE(RIGHT(prep!E18, LEN(prep!E18) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J17" s="85" t="str">
+      <c r="L17" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K17" s="85">
+      <c r="M17" s="85">
         <f>VALUE(RIGHT(prep!F18, LEN(prep!F18) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L17" s="85" t="str">
+      <c r="N17" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M17" s="85">
+      <c r="O17" s="85">
         <f>VALUE(RIGHT(prep!G18, LEN(prep!G18) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N17" s="85" t="str">
+      <c r="P17" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O17" s="85">
+      <c r="Q17" s="85">
         <f>VALUE(RIGHT(prep!H18, LEN(prep!H18) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P17" s="85" t="str">
+      <c r="R17" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q17" s="85">
+      <c r="S17" s="85">
         <f>VALUE(RIGHT(prep!I18, LEN(prep!I18) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R17" s="85" t="str">
+      <c r="T17" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S17" s="85">
+      <c r="U17" s="85">
         <f>VALUE(RIGHT(prep!J18, LEN(prep!J18) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T17" s="85" t="str">
+      <c r="V17" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U17" s="85">
+      <c r="W17" s="85">
         <f>VALUE(RIGHT(prep!K18, LEN(prep!K18) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V17" s="85" t="str">
+      <c r="X17" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W17" s="85">
+      <c r="Y17" s="85">
         <f>VALUE(RIGHT(prep!L18, LEN(prep!L18) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X17" s="85" t="str">
+      <c r="Z17" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y17" s="85">
+      <c r="AA17" s="85">
         <f>VALUE(RIGHT(prep!M18, LEN(prep!M18) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z17" s="85" t="str">
+      <c r="AB17" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA17" s="85">
+      <c r="AC17" s="85">
         <f>VALUE(RIGHT(prep!N18, LEN(prep!N18) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB17" s="85" t="str">
+      <c r="AD17" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC17" s="66" t="s">
+      <c r="AE17" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
       <c r="AH17" s="66"/>
@@ -42760,125 +42891,131 @@
       <c r="AM17" s="66"/>
       <c r="AN17" s="66"/>
       <c r="AO17" s="66"/>
-    </row>
-    <row r="18" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+    </row>
+    <row r="18" spans="1:43" ht="15.75" customHeight="1">
       <c r="A18" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B10</f>
         <v>Data Visualisation</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B18" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="85">
         <f>VALUE(RIGHT(prep!A19, LEN(prep!A19) - 6))</f>
         <v>5</v>
       </c>
-      <c r="C18" s="85">
+      <c r="E18" s="85">
         <f>VALUE(RIGHT(prep!B19, LEN(prep!B19) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D18" s="85" t="str">
+      <c r="F18" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E18" s="85">
+      <c r="G18" s="85">
         <f>VALUE(RIGHT(prep!C19, LEN(prep!C19) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F18" s="85" t="str">
+      <c r="H18" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="85">
+      <c r="I18" s="85">
         <f>VALUE(RIGHT(prep!D19, LEN(prep!D19) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H18" s="85" t="str">
+      <c r="J18" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I18" s="85">
+      <c r="K18" s="85">
         <f>VALUE(RIGHT(prep!E19, LEN(prep!E19) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J18" s="85" t="str">
+      <c r="L18" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K18" s="85">
+      <c r="M18" s="85">
         <f>VALUE(RIGHT(prep!F19, LEN(prep!F19) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L18" s="85" t="str">
+      <c r="N18" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M18" s="85">
+      <c r="O18" s="85">
         <f>VALUE(RIGHT(prep!G19, LEN(prep!G19) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N18" s="85" t="str">
+      <c r="P18" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O18" s="85">
+      <c r="Q18" s="85">
         <f>VALUE(RIGHT(prep!H19, LEN(prep!H19) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P18" s="85" t="str">
+      <c r="R18" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q18" s="85">
+      <c r="S18" s="85">
         <f>VALUE(RIGHT(prep!I19, LEN(prep!I19) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R18" s="85" t="str">
+      <c r="T18" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S18" s="85">
+      <c r="U18" s="85">
         <f>VALUE(RIGHT(prep!J19, LEN(prep!J19) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T18" s="85" t="str">
+      <c r="V18" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U18" s="85">
+      <c r="W18" s="85">
         <f>VALUE(RIGHT(prep!K19, LEN(prep!K19) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V18" s="85" t="str">
+      <c r="X18" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W18" s="85">
+      <c r="Y18" s="85">
         <f>VALUE(RIGHT(prep!L19, LEN(prep!L19) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X18" s="85" t="str">
+      <c r="Z18" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y18" s="85">
+      <c r="AA18" s="85">
         <f>VALUE(RIGHT(prep!M19, LEN(prep!M19) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z18" s="85" t="str">
+      <c r="AB18" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA18" s="85">
+      <c r="AC18" s="85">
         <f>VALUE(RIGHT(prep!N19, LEN(prep!N19) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB18" s="85" t="str">
+      <c r="AD18" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC18" s="66" t="s">
+      <c r="AE18" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
       <c r="AH18" s="66"/>
@@ -42889,125 +43026,131 @@
       <c r="AM18" s="66"/>
       <c r="AN18" s="66"/>
       <c r="AO18" s="66"/>
-    </row>
-    <row r="19" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+    </row>
+    <row r="19" spans="1:43" ht="15.75" customHeight="1">
       <c r="A19" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B11</f>
         <v>Statistical concepts</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="85">
         <f>VALUE(RIGHT(prep!A20, LEN(prep!A20) - 6))</f>
         <v>4</v>
       </c>
-      <c r="C19" s="85">
+      <c r="E19" s="85">
         <f>VALUE(RIGHT(prep!B20, LEN(prep!B20) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D19" s="85" t="str">
+      <c r="F19" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E19" s="85">
+      <c r="G19" s="85">
         <f>VALUE(RIGHT(prep!C20, LEN(prep!C20) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F19" s="85" t="str">
+      <c r="H19" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="85">
+      <c r="I19" s="85">
         <f>VALUE(RIGHT(prep!D20, LEN(prep!D20) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H19" s="85" t="str">
+      <c r="J19" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I19" s="85">
+      <c r="K19" s="85">
         <f>VALUE(RIGHT(prep!E20, LEN(prep!E20) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J19" s="85" t="str">
+      <c r="L19" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K19" s="85">
+      <c r="M19" s="85">
         <f>VALUE(RIGHT(prep!F20, LEN(prep!F20) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L19" s="85" t="str">
+      <c r="N19" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M19" s="85">
+      <c r="O19" s="85">
         <f>VALUE(RIGHT(prep!G20, LEN(prep!G20) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N19" s="85" t="str">
+      <c r="P19" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O19" s="85">
+      <c r="Q19" s="85">
         <f>VALUE(RIGHT(prep!H20, LEN(prep!H20) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P19" s="85" t="str">
+      <c r="R19" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q19" s="85">
+      <c r="S19" s="85">
         <f>VALUE(RIGHT(prep!I20, LEN(prep!I20) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R19" s="85" t="str">
+      <c r="T19" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Statistical concepts</v>
       </c>
-      <c r="S19" s="85">
+      <c r="U19" s="85">
         <f>VALUE(RIGHT(prep!J20, LEN(prep!J20) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T19" s="85" t="str">
+      <c r="V19" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U19" s="85">
+      <c r="W19" s="85">
         <f>VALUE(RIGHT(prep!K20, LEN(prep!K20) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V19" s="85" t="str">
+      <c r="X19" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W19" s="85">
+      <c r="Y19" s="85">
         <f>VALUE(RIGHT(prep!L20, LEN(prep!L20) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X19" s="85" t="str">
+      <c r="Z19" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y19" s="85">
+      <c r="AA19" s="85">
         <f>VALUE(RIGHT(prep!M20, LEN(prep!M20) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z19" s="85" t="str">
+      <c r="AB19" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA19" s="85">
+      <c r="AC19" s="85">
         <f>VALUE(RIGHT(prep!N20, LEN(prep!N20) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB19" s="85" t="str">
+      <c r="AD19" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Statistical concepts</v>
       </c>
-      <c r="AC19" s="66" t="s">
+      <c r="AE19" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
       <c r="AF19" s="66"/>
       <c r="AG19" s="66"/>
       <c r="AH19" s="66"/>
@@ -43018,125 +43161,131 @@
       <c r="AM19" s="66"/>
       <c r="AN19" s="66"/>
       <c r="AO19" s="66"/>
-    </row>
-    <row r="20" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+    </row>
+    <row r="20" spans="1:43" ht="15.75" customHeight="1">
       <c r="A20" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B12</f>
         <v>Machine learning concepts</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="85">
         <f>VALUE(RIGHT(prep!A21, LEN(prep!A21) - 6))</f>
         <v>5</v>
       </c>
-      <c r="C20" s="85">
+      <c r="E20" s="85">
         <f>VALUE(RIGHT(prep!B21, LEN(prep!B21) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D20" s="85" t="str">
+      <c r="F20" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E20" s="85">
+      <c r="G20" s="85">
         <f>VALUE(RIGHT(prep!C21, LEN(prep!C21) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F20" s="85" t="str">
+      <c r="H20" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="85">
+      <c r="I20" s="85">
         <f>VALUE(RIGHT(prep!D21, LEN(prep!D21) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H20" s="85" t="str">
+      <c r="J20" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I20" s="85">
+      <c r="K20" s="85">
         <f>VALUE(RIGHT(prep!E21, LEN(prep!E21) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J20" s="85" t="str">
+      <c r="L20" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K20" s="85">
+      <c r="M20" s="85">
         <f>VALUE(RIGHT(prep!F21, LEN(prep!F21) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L20" s="85" t="str">
+      <c r="N20" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M20" s="85">
+      <c r="O20" s="85">
         <f>VALUE(RIGHT(prep!G21, LEN(prep!G21) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N20" s="85" t="str">
+      <c r="P20" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O20" s="85">
+      <c r="Q20" s="85">
         <f>VALUE(RIGHT(prep!H21, LEN(prep!H21) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P20" s="85" t="str">
+      <c r="R20" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q20" s="85">
+      <c r="S20" s="85">
         <f>VALUE(RIGHT(prep!I21, LEN(prep!I21) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R20" s="85" t="str">
+      <c r="T20" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S20" s="85">
+      <c r="U20" s="85">
         <f>VALUE(RIGHT(prep!J21, LEN(prep!J21) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T20" s="85" t="str">
+      <c r="V20" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U20" s="85">
+      <c r="W20" s="85">
         <f>VALUE(RIGHT(prep!K21, LEN(prep!K21) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V20" s="85" t="str">
+      <c r="X20" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W20" s="85">
+      <c r="Y20" s="85">
         <f>VALUE(RIGHT(prep!L21, LEN(prep!L21) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X20" s="85" t="str">
+      <c r="Z20" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y20" s="85">
+      <c r="AA20" s="85">
         <f>VALUE(RIGHT(prep!M21, LEN(prep!M21) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z20" s="85" t="str">
+      <c r="AB20" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA20" s="85">
+      <c r="AC20" s="85">
         <f>VALUE(RIGHT(prep!N21, LEN(prep!N21) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB20" s="85" t="str">
+      <c r="AD20" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC20" s="66" t="s">
+      <c r="AE20" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
       <c r="AF20" s="66"/>
       <c r="AG20" s="66"/>
       <c r="AH20" s="66"/>
@@ -43147,125 +43296,131 @@
       <c r="AM20" s="66"/>
       <c r="AN20" s="66"/>
       <c r="AO20" s="66"/>
-    </row>
-    <row r="21" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+    </row>
+    <row r="21" spans="1:43" ht="15.75" customHeight="1">
       <c r="A21" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B13</f>
         <v>ETL/ELT - Tooling &amp; languages</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="85">
         <f>VALUE(RIGHT(prep!A22, LEN(prep!A22) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C21" s="85">
+      <c r="E21" s="85">
         <f>VALUE(RIGHT(prep!B22, LEN(prep!B22) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D21" s="85" t="str">
+      <c r="F21" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E21" s="85">
+      <c r="G21" s="85">
         <f>VALUE(RIGHT(prep!C22, LEN(prep!C22) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F21" s="85" t="str">
+      <c r="H21" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="85">
+      <c r="I21" s="85">
         <f>VALUE(RIGHT(prep!D22, LEN(prep!D22) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H21" s="85" t="str">
+      <c r="J21" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I21" s="85">
+      <c r="K21" s="85">
         <f>VALUE(RIGHT(prep!E22, LEN(prep!E22) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J21" s="85" t="str">
+      <c r="L21" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K21" s="85">
+      <c r="M21" s="85">
         <f>VALUE(RIGHT(prep!F22, LEN(prep!F22) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L21" s="85" t="str">
+      <c r="N21" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M21" s="85">
+      <c r="O21" s="85">
         <f>VALUE(RIGHT(prep!G22, LEN(prep!G22) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N21" s="85" t="str">
+      <c r="P21" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O21" s="85">
+      <c r="Q21" s="85">
         <f>VALUE(RIGHT(prep!H22, LEN(prep!H22) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P21" s="85" t="str">
+      <c r="R21" s="85" t="str">
         <f t="shared" si="6"/>
         <v>ETL/ELT - Tooling &amp; languages</v>
       </c>
-      <c r="Q21" s="85">
+      <c r="S21" s="85">
         <f>VALUE(RIGHT(prep!I22, LEN(prep!I22) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R21" s="85" t="str">
+      <c r="T21" s="85" t="str">
         <f t="shared" si="7"/>
         <v>ETL/ELT - Tooling &amp; languages</v>
       </c>
-      <c r="S21" s="85">
+      <c r="U21" s="85">
         <f>VALUE(RIGHT(prep!J22, LEN(prep!J22) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T21" s="85" t="str">
+      <c r="V21" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U21" s="85">
+      <c r="W21" s="85">
         <f>VALUE(RIGHT(prep!K22, LEN(prep!K22) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V21" s="85" t="str">
+      <c r="X21" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W21" s="85">
+      <c r="Y21" s="85">
         <f>VALUE(RIGHT(prep!L22, LEN(prep!L22) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X21" s="85" t="str">
+      <c r="Z21" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y21" s="85">
+      <c r="AA21" s="85">
         <f>VALUE(RIGHT(prep!M22, LEN(prep!M22) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z21" s="85" t="str">
+      <c r="AB21" s="85" t="str">
         <f t="shared" si="11"/>
         <v>ETL/ELT - Tooling &amp; languages</v>
       </c>
-      <c r="AA21" s="85">
+      <c r="AC21" s="85">
         <f>VALUE(RIGHT(prep!N22, LEN(prep!N22) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB21" s="85" t="str">
+      <c r="AD21" s="85" t="str">
         <f t="shared" si="12"/>
         <v>ETL/ELT - Tooling &amp; languages</v>
       </c>
-      <c r="AC21" s="66" t="s">
+      <c r="AE21" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
       <c r="AF21" s="66"/>
       <c r="AG21" s="66"/>
       <c r="AH21" s="66"/>
@@ -43276,125 +43431,131 @@
       <c r="AM21" s="66"/>
       <c r="AN21" s="66"/>
       <c r="AO21" s="66"/>
-    </row>
-    <row r="22" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+    </row>
+    <row r="22" spans="1:43" ht="15.75" customHeight="1">
       <c r="A22" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B14</f>
         <v>Query &amp; data analysis languages (SQL, Python, ...)</v>
       </c>
-      <c r="B22" s="85">
+      <c r="B22" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="85">
         <f>VALUE(RIGHT(prep!A23, LEN(prep!A23) - 6))</f>
         <v>5</v>
       </c>
-      <c r="C22" s="85">
+      <c r="E22" s="85">
         <f>VALUE(RIGHT(prep!B23, LEN(prep!B23) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D22" s="85" t="str">
+      <c r="F22" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E22" s="85">
+      <c r="G22" s="85">
         <f>VALUE(RIGHT(prep!C23, LEN(prep!C23) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F22" s="85" t="str">
+      <c r="H22" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="85">
+      <c r="I22" s="85">
         <f>VALUE(RIGHT(prep!D23, LEN(prep!D23) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H22" s="85" t="str">
+      <c r="J22" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="85">
+      <c r="K22" s="85">
         <f>VALUE(RIGHT(prep!E23, LEN(prep!E23) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J22" s="85" t="str">
+      <c r="L22" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K22" s="85">
+      <c r="M22" s="85">
         <f>VALUE(RIGHT(prep!F23, LEN(prep!F23) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L22" s="85" t="str">
+      <c r="N22" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M22" s="85">
+      <c r="O22" s="85">
         <f>VALUE(RIGHT(prep!G23, LEN(prep!G23) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N22" s="85" t="str">
+      <c r="P22" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O22" s="85">
+      <c r="Q22" s="85">
         <f>VALUE(RIGHT(prep!H23, LEN(prep!H23) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P22" s="85" t="str">
+      <c r="R22" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q22" s="85">
+      <c r="S22" s="85">
         <f>VALUE(RIGHT(prep!I23, LEN(prep!I23) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R22" s="85" t="str">
+      <c r="T22" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S22" s="85">
+      <c r="U22" s="85">
         <f>VALUE(RIGHT(prep!J23, LEN(prep!J23) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T22" s="85" t="str">
+      <c r="V22" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U22" s="85">
+      <c r="W22" s="85">
         <f>VALUE(RIGHT(prep!K23, LEN(prep!K23) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V22" s="85" t="str">
+      <c r="X22" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W22" s="85">
+      <c r="Y22" s="85">
         <f>VALUE(RIGHT(prep!L23, LEN(prep!L23) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X22" s="85" t="str">
+      <c r="Z22" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y22" s="85">
+      <c r="AA22" s="85">
         <f>VALUE(RIGHT(prep!M23, LEN(prep!M23) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z22" s="85" t="str">
+      <c r="AB22" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA22" s="85">
+      <c r="AC22" s="85">
         <f>VALUE(RIGHT(prep!N23, LEN(prep!N23) - 6))</f>
         <v>5</v>
       </c>
-      <c r="AB22" s="85" t="str">
+      <c r="AD22" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC22" s="66" t="s">
+      <c r="AE22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
       <c r="AF22" s="66"/>
       <c r="AG22" s="66"/>
       <c r="AH22" s="66"/>
@@ -43405,125 +43566,131 @@
       <c r="AM22" s="66"/>
       <c r="AN22" s="66"/>
       <c r="AO22" s="66"/>
-    </row>
-    <row r="23" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+    </row>
+    <row r="23" spans="1:43" ht="15.75" customHeight="1">
       <c r="A23" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B15</f>
         <v>Versioning</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="85">
         <f>VALUE(RIGHT(prep!A24, LEN(prep!A24) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C23" s="85">
+      <c r="E23" s="85">
         <f>VALUE(RIGHT(prep!B24, LEN(prep!B24) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D23" s="85" t="str">
+      <c r="F23" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E23" s="85">
+      <c r="G23" s="85">
         <f>VALUE(RIGHT(prep!C24, LEN(prep!C24) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F23" s="85" t="str">
+      <c r="H23" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="85">
+      <c r="I23" s="85">
         <f>VALUE(RIGHT(prep!D24, LEN(prep!D24) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H23" s="85" t="str">
+      <c r="J23" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I23" s="85">
+      <c r="K23" s="85">
         <f>VALUE(RIGHT(prep!E24, LEN(prep!E24) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J23" s="85" t="str">
+      <c r="L23" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K23" s="85">
+      <c r="M23" s="85">
         <f>VALUE(RIGHT(prep!F24, LEN(prep!F24) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L23" s="85" t="str">
+      <c r="N23" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M23" s="85">
+      <c r="O23" s="85">
         <f>VALUE(RIGHT(prep!G24, LEN(prep!G24) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N23" s="85" t="str">
+      <c r="P23" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O23" s="85">
+      <c r="Q23" s="85">
         <f>VALUE(RIGHT(prep!H24, LEN(prep!H24) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P23" s="85" t="str">
+      <c r="R23" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Versioning</v>
       </c>
-      <c r="Q23" s="85">
+      <c r="S23" s="85">
         <f>VALUE(RIGHT(prep!I24, LEN(prep!I24) - 6))</f>
         <v>4</v>
       </c>
-      <c r="R23" s="85" t="str">
+      <c r="T23" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Versioning</v>
       </c>
-      <c r="S23" s="85">
+      <c r="U23" s="85">
         <f>VALUE(RIGHT(prep!J24, LEN(prep!J24) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T23" s="85" t="str">
+      <c r="V23" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U23" s="85">
+      <c r="W23" s="85">
         <f>VALUE(RIGHT(prep!K24, LEN(prep!K24) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V23" s="85" t="str">
+      <c r="X23" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W23" s="85">
+      <c r="Y23" s="85">
         <f>VALUE(RIGHT(prep!L24, LEN(prep!L24) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X23" s="85" t="str">
+      <c r="Z23" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y23" s="85">
+      <c r="AA23" s="85">
         <f>VALUE(RIGHT(prep!M24, LEN(prep!M24) - 6))</f>
         <v>4</v>
       </c>
-      <c r="Z23" s="85" t="str">
+      <c r="AB23" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Versioning</v>
       </c>
-      <c r="AA23" s="85">
+      <c r="AC23" s="85">
         <f>VALUE(RIGHT(prep!N24, LEN(prep!N24) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB23" s="85" t="str">
+      <c r="AD23" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Versioning</v>
       </c>
-      <c r="AC23" s="66" t="s">
+      <c r="AE23" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
       <c r="AF23" s="66"/>
       <c r="AG23" s="66"/>
       <c r="AH23" s="66"/>
@@ -43534,125 +43701,131 @@
       <c r="AM23" s="66"/>
       <c r="AN23" s="66"/>
       <c r="AO23" s="66"/>
-    </row>
-    <row r="24" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="66"/>
+    </row>
+    <row r="24" spans="1:43" ht="15.75" customHeight="1">
       <c r="A24" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B16</f>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="B24" s="85">
+      <c r="B24" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="85">
         <f>VALUE(RIGHT(prep!A25, LEN(prep!A25) - 6))</f>
         <v>1</v>
       </c>
-      <c r="C24" s="85">
+      <c r="E24" s="85">
         <f>VALUE(RIGHT(prep!B25, LEN(prep!B25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D24" s="85" t="str">
+      <c r="F24" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="E24" s="85">
+      <c r="G24" s="85">
         <f>VALUE(RIGHT(prep!C25, LEN(prep!C25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F24" s="85" t="str">
+      <c r="H24" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="G24" s="85">
+      <c r="I24" s="85">
         <f>VALUE(RIGHT(prep!D25, LEN(prep!D25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H24" s="85" t="str">
+      <c r="J24" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="I24" s="85">
+      <c r="K24" s="85">
         <f>VALUE(RIGHT(prep!E25, LEN(prep!E25) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J24" s="85" t="str">
+      <c r="L24" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K24" s="85">
+      <c r="M24" s="85">
         <f>VALUE(RIGHT(prep!F25, LEN(prep!F25) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L24" s="85" t="str">
+      <c r="N24" s="85" t="str">
         <f t="shared" si="4"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="M24" s="85">
+      <c r="O24" s="85">
         <f>VALUE(RIGHT(prep!G25, LEN(prep!G25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N24" s="85" t="str">
+      <c r="P24" s="85" t="str">
         <f t="shared" si="5"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="O24" s="85">
+      <c r="Q24" s="85">
         <f>VALUE(RIGHT(prep!H25, LEN(prep!H25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="P24" s="85" t="str">
+      <c r="R24" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="Q24" s="85">
+      <c r="S24" s="85">
         <f>VALUE(RIGHT(prep!I25, LEN(prep!I25) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R24" s="85" t="str">
+      <c r="T24" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="S24" s="85">
+      <c r="U24" s="85">
         <f>VALUE(RIGHT(prep!J25, LEN(prep!J25) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T24" s="85" t="str">
+      <c r="V24" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U24" s="85">
+      <c r="W24" s="85">
         <f>VALUE(RIGHT(prep!K25, LEN(prep!K25) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V24" s="85" t="str">
+      <c r="X24" s="85" t="str">
         <f t="shared" si="9"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="W24" s="85">
+      <c r="Y24" s="85">
         <f>VALUE(RIGHT(prep!L25, LEN(prep!L25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X24" s="85" t="str">
+      <c r="Z24" s="85" t="str">
         <f t="shared" si="10"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="Y24" s="85">
+      <c r="AA24" s="85">
         <f>VALUE(RIGHT(prep!M25, LEN(prep!M25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z24" s="85" t="str">
+      <c r="AB24" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="AA24" s="85">
+      <c r="AC24" s="85">
         <f>VALUE(RIGHT(prep!N25, LEN(prep!N25) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB24" s="85" t="str">
+      <c r="AD24" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Modern Bi architecture principles</v>
       </c>
-      <c r="AC24" s="66" t="s">
+      <c r="AE24" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
       <c r="AF24" s="66"/>
       <c r="AG24" s="66"/>
       <c r="AH24" s="66"/>
@@ -43663,125 +43836,131 @@
       <c r="AM24" s="66"/>
       <c r="AN24" s="66"/>
       <c r="AO24" s="66"/>
-    </row>
-    <row r="25" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+    </row>
+    <row r="25" spans="1:43" ht="15.75" customHeight="1">
       <c r="A25" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B17</f>
         <v>Cloud Providers</v>
       </c>
-      <c r="B25" s="85">
+      <c r="B25" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="85">
         <f>VALUE(RIGHT(prep!A26, LEN(prep!A26) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C25" s="85">
+      <c r="E25" s="85">
         <f>VALUE(RIGHT(prep!B26, LEN(prep!B26) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D25" s="85" t="str">
+      <c r="F25" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="E25" s="85">
+      <c r="G25" s="85">
         <f>VALUE(RIGHT(prep!C26, LEN(prep!C26) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F25" s="85" t="str">
+      <c r="H25" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="G25" s="85">
+      <c r="I25" s="85">
         <f>VALUE(RIGHT(prep!D26, LEN(prep!D26) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H25" s="85" t="str">
+      <c r="J25" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="I25" s="85">
+      <c r="K25" s="85">
         <f>VALUE(RIGHT(prep!E26, LEN(prep!E26) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J25" s="85" t="str">
+      <c r="L25" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K25" s="85">
+      <c r="M25" s="85">
         <f>VALUE(RIGHT(prep!F26, LEN(prep!F26) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L25" s="85" t="str">
+      <c r="N25" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M25" s="85">
+      <c r="O25" s="85">
         <f>VALUE(RIGHT(prep!G26, LEN(prep!G26) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N25" s="85" t="str">
+      <c r="P25" s="85" t="str">
         <f t="shared" si="5"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="O25" s="85">
+      <c r="Q25" s="85">
         <f>VALUE(RIGHT(prep!H26, LEN(prep!H26) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P25" s="85" t="str">
+      <c r="R25" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="Q25" s="85">
+      <c r="S25" s="85">
         <f>VALUE(RIGHT(prep!I26, LEN(prep!I26) - 6))</f>
         <v>4</v>
       </c>
-      <c r="R25" s="85" t="str">
+      <c r="T25" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="S25" s="85">
+      <c r="U25" s="85">
         <f>VALUE(RIGHT(prep!J26, LEN(prep!J26) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T25" s="85" t="str">
+      <c r="V25" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U25" s="85">
+      <c r="W25" s="85">
         <f>VALUE(RIGHT(prep!K26, LEN(prep!K26) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V25" s="85" t="str">
+      <c r="X25" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W25" s="85">
+      <c r="Y25" s="85">
         <f>VALUE(RIGHT(prep!L26, LEN(prep!L26) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X25" s="85" t="str">
+      <c r="Z25" s="85" t="str">
         <f t="shared" si="10"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="Y25" s="85">
+      <c r="AA25" s="85">
         <f>VALUE(RIGHT(prep!M26, LEN(prep!M26) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z25" s="85" t="str">
+      <c r="AB25" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="AA25" s="85">
+      <c r="AC25" s="85">
         <f>VALUE(RIGHT(prep!N26, LEN(prep!N26) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB25" s="85" t="str">
+      <c r="AD25" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Cloud Providers</v>
       </c>
-      <c r="AC25" s="66" t="s">
+      <c r="AE25" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD25" s="66"/>
-      <c r="AE25" s="66"/>
       <c r="AF25" s="66"/>
       <c r="AG25" s="66"/>
       <c r="AH25" s="66"/>
@@ -43792,125 +43971,131 @@
       <c r="AM25" s="66"/>
       <c r="AN25" s="66"/>
       <c r="AO25" s="66"/>
-    </row>
-    <row r="26" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+    </row>
+    <row r="26" spans="1:43" ht="15.75" customHeight="1">
       <c r="A26" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B18</f>
         <v>Cloud Agnostic framework tools</v>
       </c>
-      <c r="B26" s="85">
+      <c r="B26" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="85">
         <f>VALUE(RIGHT(prep!A27, LEN(prep!A27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C26" s="85">
+      <c r="E26" s="85">
         <f>VALUE(RIGHT(prep!B27, LEN(prep!B27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D26" s="85" t="str">
+      <c r="F26" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E26" s="85">
+      <c r="G26" s="85">
         <f>VALUE(RIGHT(prep!C27, LEN(prep!C27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F26" s="85" t="str">
+      <c r="H26" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="85">
+      <c r="I26" s="85">
         <f>VALUE(RIGHT(prep!D27, LEN(prep!D27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="H26" s="85" t="str">
+      <c r="J26" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I26" s="85">
+      <c r="K26" s="85">
         <f>VALUE(RIGHT(prep!E27, LEN(prep!E27) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J26" s="85" t="str">
+      <c r="L26" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="85">
+      <c r="M26" s="85">
         <f>VALUE(RIGHT(prep!F27, LEN(prep!F27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L26" s="85" t="str">
+      <c r="N26" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M26" s="85">
+      <c r="O26" s="85">
         <f>VALUE(RIGHT(prep!G27, LEN(prep!G27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N26" s="85" t="str">
+      <c r="P26" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O26" s="85">
+      <c r="Q26" s="85">
         <f>VALUE(RIGHT(prep!H27, LEN(prep!H27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P26" s="85" t="str">
+      <c r="R26" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q26" s="85">
+      <c r="S26" s="85">
         <f>VALUE(RIGHT(prep!I27, LEN(prep!I27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="R26" s="85" t="str">
+      <c r="T26" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S26" s="85">
+      <c r="U26" s="85">
         <f>VALUE(RIGHT(prep!J27, LEN(prep!J27) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T26" s="85" t="str">
+      <c r="V26" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U26" s="85">
+      <c r="W26" s="85">
         <f>VALUE(RIGHT(prep!K27, LEN(prep!K27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V26" s="85" t="str">
+      <c r="X26" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W26" s="85">
+      <c r="Y26" s="85">
         <f>VALUE(RIGHT(prep!L27, LEN(prep!L27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X26" s="85" t="str">
+      <c r="Z26" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y26" s="85">
+      <c r="AA26" s="85">
         <f>VALUE(RIGHT(prep!M27, LEN(prep!M27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z26" s="85" t="str">
+      <c r="AB26" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA26" s="85">
+      <c r="AC26" s="85">
         <f>VALUE(RIGHT(prep!N27, LEN(prep!N27) - 6))</f>
         <v>2</v>
       </c>
-      <c r="AB26" s="85" t="str">
+      <c r="AD26" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC26" s="66" t="s">
+      <c r="AE26" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
       <c r="AF26" s="66"/>
       <c r="AG26" s="66"/>
       <c r="AH26" s="66"/>
@@ -43921,125 +44106,131 @@
       <c r="AM26" s="66"/>
       <c r="AN26" s="66"/>
       <c r="AO26" s="66"/>
-    </row>
-    <row r="27" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+    </row>
+    <row r="27" spans="1:43" ht="15.75" customHeight="1">
       <c r="A27" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B19</f>
         <v>Orchestration tooling</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="85">
         <f>VALUE(RIGHT(prep!A28, LEN(prep!A28) - 6))</f>
         <v>1</v>
       </c>
-      <c r="C27" s="85">
+      <c r="E27" s="85">
         <f>VALUE(RIGHT(prep!B28, LEN(prep!B28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D27" s="85" t="str">
+      <c r="F27" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="E27" s="85">
+      <c r="G27" s="85">
         <f>VALUE(RIGHT(prep!C28, LEN(prep!C28) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F27" s="85" t="str">
+      <c r="H27" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="G27" s="85">
+      <c r="I27" s="85">
         <f>VALUE(RIGHT(prep!D28, LEN(prep!D28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="H27" s="85" t="str">
+      <c r="J27" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="I27" s="85">
+      <c r="K27" s="85">
         <f>VALUE(RIGHT(prep!E28, LEN(prep!E28) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J27" s="85" t="str">
+      <c r="L27" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K27" s="85">
+      <c r="M27" s="85">
         <f>VALUE(RIGHT(prep!F28, LEN(prep!F28) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L27" s="85" t="str">
+      <c r="N27" s="85" t="str">
         <f t="shared" si="4"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="M27" s="85">
+      <c r="O27" s="85">
         <f>VALUE(RIGHT(prep!G28, LEN(prep!G28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N27" s="85" t="str">
+      <c r="P27" s="85" t="str">
         <f t="shared" si="5"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="O27" s="85">
+      <c r="Q27" s="85">
         <f>VALUE(RIGHT(prep!H28, LEN(prep!H28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="P27" s="85" t="str">
+      <c r="R27" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="Q27" s="85">
+      <c r="S27" s="85">
         <f>VALUE(RIGHT(prep!I28, LEN(prep!I28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R27" s="85" t="str">
+      <c r="T27" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="S27" s="85">
+      <c r="U27" s="85">
         <f>VALUE(RIGHT(prep!J28, LEN(prep!J28) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T27" s="85" t="str">
+      <c r="V27" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U27" s="85">
+      <c r="W27" s="85">
         <f>VALUE(RIGHT(prep!K28, LEN(prep!K28) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V27" s="85" t="str">
+      <c r="X27" s="85" t="str">
         <f t="shared" si="9"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="W27" s="85">
+      <c r="Y27" s="85">
         <f>VALUE(RIGHT(prep!L28, LEN(prep!L28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X27" s="85" t="str">
+      <c r="Z27" s="85" t="str">
         <f t="shared" si="10"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="Y27" s="85">
+      <c r="AA27" s="85">
         <f>VALUE(RIGHT(prep!M28, LEN(prep!M28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z27" s="85" t="str">
+      <c r="AB27" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="AA27" s="85">
+      <c r="AC27" s="85">
         <f>VALUE(RIGHT(prep!N28, LEN(prep!N28) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB27" s="85" t="str">
+      <c r="AD27" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Orchestration tooling</v>
       </c>
-      <c r="AC27" s="66" t="s">
+      <c r="AE27" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
       <c r="AF27" s="66"/>
       <c r="AG27" s="66"/>
       <c r="AH27" s="66"/>
@@ -44050,125 +44241,131 @@
       <c r="AM27" s="66"/>
       <c r="AN27" s="66"/>
       <c r="AO27" s="66"/>
-    </row>
-    <row r="28" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+    </row>
+    <row r="28" spans="1:43" ht="15.75" customHeight="1">
       <c r="A28" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B20</f>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="B28" s="85">
+      <c r="B28" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="85">
         <f>VALUE(RIGHT(prep!A29, LEN(prep!A29) - 6))</f>
         <v>1</v>
       </c>
-      <c r="C28" s="85">
+      <c r="E28" s="85">
         <f>VALUE(RIGHT(prep!B29, LEN(prep!B29) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D28" s="85" t="str">
+      <c r="F28" s="85" t="str">
         <f t="shared" si="0"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="E28" s="85">
+      <c r="G28" s="85">
         <f>VALUE(RIGHT(prep!C29, LEN(prep!C29) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F28" s="85" t="str">
+      <c r="H28" s="85" t="str">
         <f t="shared" si="1"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="G28" s="85">
+      <c r="I28" s="85">
         <f>VALUE(RIGHT(prep!D29, LEN(prep!D29) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H28" s="85" t="str">
+      <c r="J28" s="85" t="str">
         <f t="shared" si="2"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="I28" s="85">
+      <c r="K28" s="85">
         <f>VALUE(RIGHT(prep!E29, LEN(prep!E29) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J28" s="85" t="str">
+      <c r="L28" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K28" s="85">
+      <c r="M28" s="85">
         <f>VALUE(RIGHT(prep!F29, LEN(prep!F29) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L28" s="85" t="str">
+      <c r="N28" s="85" t="str">
         <f t="shared" si="4"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="M28" s="85">
+      <c r="O28" s="85">
         <f>VALUE(RIGHT(prep!G29, LEN(prep!G29) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N28" s="85" t="str">
+      <c r="P28" s="85" t="str">
         <f t="shared" si="5"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="O28" s="85">
+      <c r="Q28" s="85">
         <f>VALUE(RIGHT(prep!H29, LEN(prep!H29) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P28" s="85" t="str">
+      <c r="R28" s="85" t="str">
         <f t="shared" si="6"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="Q28" s="85">
+      <c r="S28" s="85">
         <f>VALUE(RIGHT(prep!I29, LEN(prep!I29) - 6))</f>
         <v>4</v>
       </c>
-      <c r="R28" s="85" t="str">
+      <c r="T28" s="85" t="str">
         <f t="shared" si="7"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="S28" s="85">
+      <c r="U28" s="85">
         <f>VALUE(RIGHT(prep!J29, LEN(prep!J29) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T28" s="85" t="str">
+      <c r="V28" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U28" s="85">
+      <c r="W28" s="85">
         <f>VALUE(RIGHT(prep!K29, LEN(prep!K29) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V28" s="85" t="str">
+      <c r="X28" s="85" t="str">
         <f t="shared" si="9"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="W28" s="85">
+      <c r="Y28" s="85">
         <f>VALUE(RIGHT(prep!L29, LEN(prep!L29) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X28" s="85" t="str">
+      <c r="Z28" s="85" t="str">
         <f t="shared" si="10"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="Y28" s="85">
+      <c r="AA28" s="85">
         <f>VALUE(RIGHT(prep!M29, LEN(prep!M29) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z28" s="85" t="str">
+      <c r="AB28" s="85" t="str">
         <f t="shared" si="11"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="AA28" s="85">
+      <c r="AC28" s="85">
         <f>VALUE(RIGHT(prep!N29, LEN(prep!N29) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB28" s="85" t="str">
+      <c r="AD28" s="85" t="str">
         <f t="shared" si="12"/>
         <v>DQ Monitoring tooling</v>
       </c>
-      <c r="AC28" s="66" t="s">
+      <c r="AE28" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="66"/>
       <c r="AF28" s="66"/>
       <c r="AG28" s="66"/>
       <c r="AH28" s="66"/>
@@ -44179,125 +44376,131 @@
       <c r="AM28" s="66"/>
       <c r="AN28" s="66"/>
       <c r="AO28" s="66"/>
-    </row>
-    <row r="29" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+    </row>
+    <row r="29" spans="1:43" ht="15.75" customHeight="1">
       <c r="A29" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B21</f>
         <v>Data Governance tooling</v>
       </c>
-      <c r="B29" s="85">
+      <c r="B29" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="85">
         <f>VALUE(RIGHT(prep!A30, LEN(prep!A30) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C29" s="85">
+      <c r="E29" s="85">
         <f>VALUE(RIGHT(prep!B30, LEN(prep!B30) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D29" s="85" t="str">
+      <c r="F29" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="E29" s="85">
+      <c r="G29" s="85">
         <f>VALUE(RIGHT(prep!C30, LEN(prep!C30) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F29" s="85" t="str">
+      <c r="H29" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="G29" s="85">
+      <c r="I29" s="85">
         <f>VALUE(RIGHT(prep!D30, LEN(prep!D30) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H29" s="85" t="str">
+      <c r="J29" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="I29" s="85">
+      <c r="K29" s="85">
         <f>VALUE(RIGHT(prep!E30, LEN(prep!E30) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J29" s="85" t="str">
+      <c r="L29" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K29" s="85">
+      <c r="M29" s="85">
         <f>VALUE(RIGHT(prep!F30, LEN(prep!F30) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L29" s="85" t="str">
+      <c r="N29" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M29" s="85">
+      <c r="O29" s="85">
         <f>VALUE(RIGHT(prep!G30, LEN(prep!G30) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N29" s="85" t="str">
+      <c r="P29" s="85" t="str">
         <f t="shared" si="5"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="O29" s="85">
+      <c r="Q29" s="85">
         <f>VALUE(RIGHT(prep!H30, LEN(prep!H30) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P29" s="85" t="str">
+      <c r="R29" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="Q29" s="85">
+      <c r="S29" s="85">
         <f>VALUE(RIGHT(prep!I30, LEN(prep!I30) - 6))</f>
         <v>4</v>
       </c>
-      <c r="R29" s="85" t="str">
+      <c r="T29" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="S29" s="85">
+      <c r="U29" s="85">
         <f>VALUE(RIGHT(prep!J30, LEN(prep!J30) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T29" s="85" t="str">
+      <c r="V29" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U29" s="85">
+      <c r="W29" s="85">
         <f>VALUE(RIGHT(prep!K30, LEN(prep!K30) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V29" s="85" t="str">
+      <c r="X29" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W29" s="85">
+      <c r="Y29" s="85">
         <f>VALUE(RIGHT(prep!L30, LEN(prep!L30) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X29" s="85" t="str">
+      <c r="Z29" s="85" t="str">
         <f t="shared" si="10"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="Y29" s="85">
+      <c r="AA29" s="85">
         <f>VALUE(RIGHT(prep!M30, LEN(prep!M30) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z29" s="85" t="str">
+      <c r="AB29" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="AA29" s="85">
+      <c r="AC29" s="85">
         <f>VALUE(RIGHT(prep!N30, LEN(prep!N30) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB29" s="85" t="str">
+      <c r="AD29" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Data Governance tooling</v>
       </c>
-      <c r="AC29" s="66" t="s">
+      <c r="AE29" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
       <c r="AF29" s="66"/>
       <c r="AG29" s="66"/>
       <c r="AH29" s="66"/>
@@ -44308,125 +44511,131 @@
       <c r="AM29" s="66"/>
       <c r="AN29" s="66"/>
       <c r="AO29" s="66"/>
-    </row>
-    <row r="30" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+    </row>
+    <row r="30" spans="1:43" ht="15.75" customHeight="1">
       <c r="A30" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B22</f>
         <v>BI Tools</v>
       </c>
-      <c r="B30" s="85">
+      <c r="B30" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="85">
         <f>VALUE(RIGHT(prep!A31, LEN(prep!A31) - 6))</f>
         <v>4</v>
       </c>
-      <c r="C30" s="85">
+      <c r="E30" s="85">
         <f>VALUE(RIGHT(prep!B31, LEN(prep!B31) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D30" s="85" t="str">
+      <c r="F30" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E30" s="85">
+      <c r="G30" s="85">
         <f>VALUE(RIGHT(prep!C31, LEN(prep!C31) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F30" s="85" t="str">
+      <c r="H30" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G30" s="85">
+      <c r="I30" s="85">
         <f>VALUE(RIGHT(prep!D31, LEN(prep!D31) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H30" s="85" t="str">
+      <c r="J30" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="85">
+      <c r="K30" s="85">
         <f>VALUE(RIGHT(prep!E31, LEN(prep!E31) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J30" s="85" t="str">
+      <c r="L30" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K30" s="85">
+      <c r="M30" s="85">
         <f>VALUE(RIGHT(prep!F31, LEN(prep!F31) - 6))</f>
         <v>2</v>
       </c>
-      <c r="L30" s="85" t="str">
+      <c r="N30" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M30" s="85">
+      <c r="O30" s="85">
         <f>VALUE(RIGHT(prep!G31, LEN(prep!G31) - 6))</f>
         <v>3</v>
       </c>
-      <c r="N30" s="85" t="str">
+      <c r="P30" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O30" s="85">
+      <c r="Q30" s="85">
         <f>VALUE(RIGHT(prep!H31, LEN(prep!H31) - 6))</f>
         <v>4</v>
       </c>
-      <c r="P30" s="85" t="str">
+      <c r="R30" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q30" s="85">
+      <c r="S30" s="85">
         <f>VALUE(RIGHT(prep!I31, LEN(prep!I31) - 6))</f>
         <v>5</v>
       </c>
-      <c r="R30" s="85" t="str">
+      <c r="T30" s="85" t="str">
         <f t="shared" si="7"/>
         <v>BI Tools</v>
       </c>
-      <c r="S30" s="85">
+      <c r="U30" s="85">
         <f>VALUE(RIGHT(prep!J31, LEN(prep!J31) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T30" s="85" t="str">
+      <c r="V30" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U30" s="85">
+      <c r="W30" s="85">
         <f>VALUE(RIGHT(prep!K31, LEN(prep!K31) - 6))</f>
         <v>2</v>
       </c>
-      <c r="V30" s="85" t="str">
+      <c r="X30" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W30" s="85">
+      <c r="Y30" s="85">
         <f>VALUE(RIGHT(prep!L31, LEN(prep!L31) - 6))</f>
         <v>3</v>
       </c>
-      <c r="X30" s="85" t="str">
+      <c r="Z30" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y30" s="85">
+      <c r="AA30" s="85">
         <f>VALUE(RIGHT(prep!M31, LEN(prep!M31) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z30" s="85" t="str">
+      <c r="AB30" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA30" s="85">
+      <c r="AC30" s="85">
         <f>VALUE(RIGHT(prep!N31, LEN(prep!N31) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB30" s="85" t="str">
+      <c r="AD30" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC30" s="66" t="s">
+      <c r="AE30" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
       <c r="AF30" s="66"/>
       <c r="AG30" s="66"/>
       <c r="AH30" s="66"/>
@@ -44437,125 +44646,131 @@
       <c r="AM30" s="66"/>
       <c r="AN30" s="66"/>
       <c r="AO30" s="66"/>
-    </row>
-    <row r="31" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+    </row>
+    <row r="31" spans="1:43" ht="15.75" customHeight="1">
       <c r="A31" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B23</f>
         <v>Data Governance Principles</v>
       </c>
-      <c r="B31" s="85">
+      <c r="B31" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="85">
         <f>VALUE(RIGHT(prep!A32, LEN(prep!A32) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C31" s="85">
+      <c r="E31" s="85">
         <f>VALUE(RIGHT(prep!B32, LEN(prep!B32) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D31" s="85" t="str">
+      <c r="F31" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Data Governance Principles</v>
       </c>
-      <c r="E31" s="85">
+      <c r="G31" s="85">
         <f>VALUE(RIGHT(prep!C32, LEN(prep!C32) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F31" s="85" t="str">
+      <c r="H31" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Data Governance Principles</v>
       </c>
-      <c r="G31" s="85">
+      <c r="I31" s="85">
         <f>VALUE(RIGHT(prep!D32, LEN(prep!D32) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H31" s="85" t="str">
+      <c r="J31" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Data Governance Principles</v>
       </c>
-      <c r="I31" s="85">
+      <c r="K31" s="85">
         <f>VALUE(RIGHT(prep!E32, LEN(prep!E32) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J31" s="85" t="str">
+      <c r="L31" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K31" s="85">
+      <c r="M31" s="85">
         <f>VALUE(RIGHT(prep!F32, LEN(prep!F32) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L31" s="85" t="str">
+      <c r="N31" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M31" s="85">
+      <c r="O31" s="85">
         <f>VALUE(RIGHT(prep!G32, LEN(prep!G32) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N31" s="85" t="str">
+      <c r="P31" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O31" s="85">
+      <c r="Q31" s="85">
         <f>VALUE(RIGHT(prep!H32, LEN(prep!H32) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P31" s="85" t="str">
+      <c r="R31" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q31" s="85">
+      <c r="S31" s="85">
         <f>VALUE(RIGHT(prep!I32, LEN(prep!I32) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R31" s="85" t="str">
+      <c r="T31" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Data Governance Principles</v>
       </c>
-      <c r="S31" s="85">
+      <c r="U31" s="85">
         <f>VALUE(RIGHT(prep!J32, LEN(prep!J32) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T31" s="85" t="str">
+      <c r="V31" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U31" s="85">
+      <c r="W31" s="85">
         <f>VALUE(RIGHT(prep!K32, LEN(prep!K32) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V31" s="85" t="str">
+      <c r="X31" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W31" s="85">
+      <c r="Y31" s="85">
         <f>VALUE(RIGHT(prep!L32, LEN(prep!L32) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X31" s="85" t="str">
+      <c r="Z31" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y31" s="85">
+      <c r="AA31" s="85">
         <f>VALUE(RIGHT(prep!M32, LEN(prep!M32) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z31" s="85" t="str">
+      <c r="AB31" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Data Governance Principles</v>
       </c>
-      <c r="AA31" s="85">
+      <c r="AC31" s="85">
         <f>VALUE(RIGHT(prep!N32, LEN(prep!N32) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB31" s="85" t="str">
+      <c r="AD31" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Data Governance Principles</v>
       </c>
-      <c r="AC31" s="66" t="s">
+      <c r="AE31" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
       <c r="AF31" s="66"/>
       <c r="AG31" s="66"/>
       <c r="AH31" s="66"/>
@@ -44566,125 +44781,131 @@
       <c r="AM31" s="66"/>
       <c r="AN31" s="66"/>
       <c r="AO31" s="66"/>
-    </row>
-    <row r="32" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+    </row>
+    <row r="32" spans="1:43" ht="15.75" customHeight="1">
       <c r="A32" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B24</f>
         <v>Data Catalog (lineage, meta data, ...)</v>
       </c>
-      <c r="B32" s="85">
+      <c r="B32" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="85">
         <f>VALUE(RIGHT(prep!A33, LEN(prep!A33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C32" s="85">
+      <c r="E32" s="85">
         <f>VALUE(RIGHT(prep!B33, LEN(prep!B33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="D32" s="85" t="str">
+      <c r="F32" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E32" s="85">
+      <c r="G32" s="85">
         <f>VALUE(RIGHT(prep!C33, LEN(prep!C33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="F32" s="85" t="str">
+      <c r="H32" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G32" s="85">
+      <c r="I32" s="85">
         <f>VALUE(RIGHT(prep!D33, LEN(prep!D33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="H32" s="85" t="str">
+      <c r="J32" s="85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I32" s="85">
+      <c r="K32" s="85">
         <f>VALUE(RIGHT(prep!E33, LEN(prep!E33) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J32" s="85" t="str">
+      <c r="L32" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K32" s="85">
+      <c r="M32" s="85">
         <f>VALUE(RIGHT(prep!F33, LEN(prep!F33) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L32" s="85" t="str">
+      <c r="N32" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M32" s="85">
+      <c r="O32" s="85">
         <f>VALUE(RIGHT(prep!G33, LEN(prep!G33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N32" s="85" t="str">
+      <c r="P32" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O32" s="85">
+      <c r="Q32" s="85">
         <f>VALUE(RIGHT(prep!H33, LEN(prep!H33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P32" s="85" t="str">
+      <c r="R32" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q32" s="85">
+      <c r="S32" s="85">
         <f>VALUE(RIGHT(prep!I33, LEN(prep!I33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="R32" s="85" t="str">
+      <c r="T32" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S32" s="85">
+      <c r="U32" s="85">
         <f>VALUE(RIGHT(prep!J33, LEN(prep!J33) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T32" s="85" t="str">
+      <c r="V32" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U32" s="85">
+      <c r="W32" s="85">
         <f>VALUE(RIGHT(prep!K33, LEN(prep!K33) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V32" s="85" t="str">
+      <c r="X32" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W32" s="85">
+      <c r="Y32" s="85">
         <f>VALUE(RIGHT(prep!L33, LEN(prep!L33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X32" s="85" t="str">
+      <c r="Z32" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y32" s="85">
+      <c r="AA32" s="85">
         <f>VALUE(RIGHT(prep!M33, LEN(prep!M33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z32" s="85" t="str">
+      <c r="AB32" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA32" s="85">
+      <c r="AC32" s="85">
         <f>VALUE(RIGHT(prep!N33, LEN(prep!N33) - 6))</f>
         <v>2</v>
       </c>
-      <c r="AB32" s="85" t="str">
+      <c r="AD32" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC32" s="66" t="s">
+      <c r="AE32" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
       <c r="AF32" s="66"/>
       <c r="AG32" s="66"/>
       <c r="AH32" s="66"/>
@@ -44695,125 +44916,131 @@
       <c r="AM32" s="66"/>
       <c r="AN32" s="66"/>
       <c r="AO32" s="66"/>
-    </row>
-    <row r="33" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+    </row>
+    <row r="33" spans="1:43" ht="15.75" customHeight="1">
       <c r="A33" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B25</f>
         <v>Data Quality Principles</v>
       </c>
-      <c r="B33" s="85">
+      <c r="B33" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="85">
         <f>VALUE(RIGHT(prep!A34, LEN(prep!A34) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C33" s="85">
+      <c r="E33" s="85">
         <f>VALUE(RIGHT(prep!B34, LEN(prep!B34) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D33" s="85" t="str">
+      <c r="F33" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E33" s="85">
+      <c r="G33" s="85">
         <f>VALUE(RIGHT(prep!C34, LEN(prep!C34) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F33" s="85" t="str">
+      <c r="H33" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Data Quality Principles</v>
       </c>
-      <c r="G33" s="85">
+      <c r="I33" s="85">
         <f>VALUE(RIGHT(prep!D34, LEN(prep!D34) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H33" s="85" t="str">
+      <c r="J33" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Data Quality Principles</v>
       </c>
-      <c r="I33" s="85">
+      <c r="K33" s="85">
         <f>VALUE(RIGHT(prep!E34, LEN(prep!E34) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J33" s="85" t="str">
+      <c r="L33" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K33" s="85">
+      <c r="M33" s="85">
         <f>VALUE(RIGHT(prep!F34, LEN(prep!F34) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L33" s="85" t="str">
+      <c r="N33" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M33" s="85">
+      <c r="O33" s="85">
         <f>VALUE(RIGHT(prep!G34, LEN(prep!G34) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N33" s="85" t="str">
+      <c r="P33" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O33" s="85">
+      <c r="Q33" s="85">
         <f>VALUE(RIGHT(prep!H34, LEN(prep!H34) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P33" s="85" t="str">
+      <c r="R33" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q33" s="85">
+      <c r="S33" s="85">
         <f>VALUE(RIGHT(prep!I34, LEN(prep!I34) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R33" s="85" t="str">
+      <c r="T33" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S33" s="85">
+      <c r="U33" s="85">
         <f>VALUE(RIGHT(prep!J34, LEN(prep!J34) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T33" s="85" t="str">
+      <c r="V33" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U33" s="85">
+      <c r="W33" s="85">
         <f>VALUE(RIGHT(prep!K34, LEN(prep!K34) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V33" s="85" t="str">
+      <c r="X33" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W33" s="85">
+      <c r="Y33" s="85">
         <f>VALUE(RIGHT(prep!L34, LEN(prep!L34) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X33" s="85" t="str">
+      <c r="Z33" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y33" s="85">
+      <c r="AA33" s="85">
         <f>VALUE(RIGHT(prep!M34, LEN(prep!M34) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z33" s="85" t="str">
+      <c r="AB33" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA33" s="85">
+      <c r="AC33" s="85">
         <f>VALUE(RIGHT(prep!N34, LEN(prep!N34) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB33" s="85" t="str">
+      <c r="AD33" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Data Quality Principles</v>
       </c>
-      <c r="AC33" s="66" t="s">
+      <c r="AE33" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
       <c r="AF33" s="66"/>
       <c r="AG33" s="66"/>
       <c r="AH33" s="66"/>
@@ -44824,125 +45051,131 @@
       <c r="AM33" s="66"/>
       <c r="AN33" s="66"/>
       <c r="AO33" s="66"/>
-    </row>
-    <row r="34" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+    </row>
+    <row r="34" spans="1:43" ht="15.75" customHeight="1">
       <c r="A34" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B26</f>
         <v>Processes &amp; People</v>
       </c>
-      <c r="B34" s="85">
+      <c r="B34" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="85">
         <f>VALUE(RIGHT(prep!A35, LEN(prep!A35) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C34" s="85">
+      <c r="E34" s="85">
         <f>VALUE(RIGHT(prep!B35, LEN(prep!B35) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D34" s="85" t="str">
+      <c r="F34" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Processes &amp; People</v>
       </c>
-      <c r="E34" s="85">
+      <c r="G34" s="85">
         <f>VALUE(RIGHT(prep!C35, LEN(prep!C35) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F34" s="85" t="str">
+      <c r="H34" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Processes &amp; People</v>
       </c>
-      <c r="G34" s="85">
+      <c r="I34" s="85">
         <f>VALUE(RIGHT(prep!D35, LEN(prep!D35) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H34" s="85" t="str">
+      <c r="J34" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Processes &amp; People</v>
       </c>
-      <c r="I34" s="85">
+      <c r="K34" s="85">
         <f>VALUE(RIGHT(prep!E35, LEN(prep!E35) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J34" s="85" t="str">
+      <c r="L34" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K34" s="85">
+      <c r="M34" s="85">
         <f>VALUE(RIGHT(prep!F35, LEN(prep!F35) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L34" s="85" t="str">
+      <c r="N34" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M34" s="85">
+      <c r="O34" s="85">
         <f>VALUE(RIGHT(prep!G35, LEN(prep!G35) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N34" s="85" t="str">
+      <c r="P34" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O34" s="85">
+      <c r="Q34" s="85">
         <f>VALUE(RIGHT(prep!H35, LEN(prep!H35) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P34" s="85" t="str">
+      <c r="R34" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q34" s="85">
+      <c r="S34" s="85">
         <f>VALUE(RIGHT(prep!I35, LEN(prep!I35) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R34" s="85" t="str">
+      <c r="T34" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Processes &amp; People</v>
       </c>
-      <c r="S34" s="85">
+      <c r="U34" s="85">
         <f>VALUE(RIGHT(prep!J35, LEN(prep!J35) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T34" s="85" t="str">
+      <c r="V34" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U34" s="85">
+      <c r="W34" s="85">
         <f>VALUE(RIGHT(prep!K35, LEN(prep!K35) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V34" s="85" t="str">
+      <c r="X34" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W34" s="85">
+      <c r="Y34" s="85">
         <f>VALUE(RIGHT(prep!L35, LEN(prep!L35) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X34" s="85" t="str">
+      <c r="Z34" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y34" s="85">
+      <c r="AA34" s="85">
         <f>VALUE(RIGHT(prep!M35, LEN(prep!M35) - 6))</f>
         <v>3</v>
       </c>
-      <c r="Z34" s="85" t="str">
+      <c r="AB34" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Processes &amp; People</v>
       </c>
-      <c r="AA34" s="85">
+      <c r="AC34" s="85">
         <f>VALUE(RIGHT(prep!N35, LEN(prep!N35) - 6))</f>
         <v>4</v>
       </c>
-      <c r="AB34" s="85" t="str">
+      <c r="AD34" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Processes &amp; People</v>
       </c>
-      <c r="AC34" s="66" t="s">
+      <c r="AE34" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
       <c r="AF34" s="66"/>
       <c r="AG34" s="66"/>
       <c r="AH34" s="66"/>
@@ -44953,125 +45186,131 @@
       <c r="AM34" s="66"/>
       <c r="AN34" s="66"/>
       <c r="AO34" s="66"/>
-    </row>
-    <row r="35" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+    </row>
+    <row r="35" spans="1:43" ht="15.75" customHeight="1">
       <c r="A35" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B27</f>
         <v>Ethical AI</v>
       </c>
-      <c r="B35" s="85">
+      <c r="B35" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="85">
         <f>VALUE(RIGHT(prep!A36, LEN(prep!A36) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C35" s="85">
+      <c r="E35" s="85">
         <f>VALUE(RIGHT(prep!B36, LEN(prep!B36) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D35" s="85" t="str">
+      <c r="F35" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Ethical AI</v>
       </c>
-      <c r="E35" s="85">
+      <c r="G35" s="85">
         <f>VALUE(RIGHT(prep!C36, LEN(prep!C36) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F35" s="85" t="str">
+      <c r="H35" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Ethical AI</v>
       </c>
-      <c r="G35" s="85">
+      <c r="I35" s="85">
         <f>VALUE(RIGHT(prep!D36, LEN(prep!D36) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H35" s="85" t="str">
+      <c r="J35" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Ethical AI</v>
       </c>
-      <c r="I35" s="85">
+      <c r="K35" s="85">
         <f>VALUE(RIGHT(prep!E36, LEN(prep!E36) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J35" s="85" t="str">
+      <c r="L35" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K35" s="85">
+      <c r="M35" s="85">
         <f>VALUE(RIGHT(prep!F36, LEN(prep!F36) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L35" s="85" t="str">
+      <c r="N35" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M35" s="85">
+      <c r="O35" s="85">
         <f>VALUE(RIGHT(prep!G36, LEN(prep!G36) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N35" s="85" t="str">
+      <c r="P35" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O35" s="85">
+      <c r="Q35" s="85">
         <f>VALUE(RIGHT(prep!H36, LEN(prep!H36) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P35" s="85" t="str">
+      <c r="R35" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q35" s="85">
+      <c r="S35" s="85">
         <f>VALUE(RIGHT(prep!I36, LEN(prep!I36) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R35" s="85" t="str">
+      <c r="T35" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Ethical AI</v>
       </c>
-      <c r="S35" s="85">
+      <c r="U35" s="85">
         <f>VALUE(RIGHT(prep!J36, LEN(prep!J36) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T35" s="85" t="str">
+      <c r="V35" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U35" s="85">
+      <c r="W35" s="85">
         <f>VALUE(RIGHT(prep!K36, LEN(prep!K36) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V35" s="85" t="str">
+      <c r="X35" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W35" s="85">
+      <c r="Y35" s="85">
         <f>VALUE(RIGHT(prep!L36, LEN(prep!L36) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X35" s="85" t="str">
+      <c r="Z35" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y35" s="85">
+      <c r="AA35" s="85">
         <f>VALUE(RIGHT(prep!M36, LEN(prep!M36) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z35" s="85" t="str">
+      <c r="AB35" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA35" s="85">
+      <c r="AC35" s="85">
         <f>VALUE(RIGHT(prep!N36, LEN(prep!N36) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB35" s="85" t="str">
+      <c r="AD35" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Ethical AI</v>
       </c>
-      <c r="AC35" s="66" t="s">
+      <c r="AE35" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
       <c r="AF35" s="66"/>
       <c r="AG35" s="66"/>
       <c r="AH35" s="66"/>
@@ -45082,125 +45321,131 @@
       <c r="AM35" s="66"/>
       <c r="AN35" s="66"/>
       <c r="AO35" s="66"/>
-    </row>
-    <row r="36" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+    </row>
+    <row r="36" spans="1:43" ht="15.75" customHeight="1">
       <c r="A36" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B28</f>
         <v>Design Thinking</v>
       </c>
-      <c r="B36" s="85">
+      <c r="B36" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="85">
         <f>VALUE(RIGHT(prep!A37, LEN(prep!A37) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C36" s="85">
+      <c r="E36" s="85">
         <f>VALUE(RIGHT(prep!B37, LEN(prep!B37) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D36" s="85" t="str">
+      <c r="F36" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Design Thinking</v>
       </c>
-      <c r="E36" s="85">
+      <c r="G36" s="85">
         <f>VALUE(RIGHT(prep!C37, LEN(prep!C37) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F36" s="85" t="str">
+      <c r="H36" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Design Thinking</v>
       </c>
-      <c r="G36" s="85">
+      <c r="I36" s="85">
         <f>VALUE(RIGHT(prep!D37, LEN(prep!D37) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H36" s="85" t="str">
+      <c r="J36" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Design Thinking</v>
       </c>
-      <c r="I36" s="85">
+      <c r="K36" s="85">
         <f>VALUE(RIGHT(prep!E37, LEN(prep!E37) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J36" s="85" t="str">
+      <c r="L36" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K36" s="85">
+      <c r="M36" s="85">
         <f>VALUE(RIGHT(prep!F37, LEN(prep!F37) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L36" s="85" t="str">
+      <c r="N36" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M36" s="85">
+      <c r="O36" s="85">
         <f>VALUE(RIGHT(prep!G37, LEN(prep!G37) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N36" s="85" t="str">
+      <c r="P36" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O36" s="85">
+      <c r="Q36" s="85">
         <f>VALUE(RIGHT(prep!H37, LEN(prep!H37) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P36" s="85" t="str">
+      <c r="R36" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q36" s="85">
+      <c r="S36" s="85">
         <f>VALUE(RIGHT(prep!I37, LEN(prep!I37) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R36" s="85" t="str">
+      <c r="T36" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Design Thinking</v>
       </c>
-      <c r="S36" s="85">
+      <c r="U36" s="85">
         <f>VALUE(RIGHT(prep!J37, LEN(prep!J37) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T36" s="85" t="str">
+      <c r="V36" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U36" s="85">
+      <c r="W36" s="85">
         <f>VALUE(RIGHT(prep!K37, LEN(prep!K37) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V36" s="85" t="str">
+      <c r="X36" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W36" s="85">
+      <c r="Y36" s="85">
         <f>VALUE(RIGHT(prep!L37, LEN(prep!L37) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X36" s="85" t="str">
+      <c r="Z36" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y36" s="85">
+      <c r="AA36" s="85">
         <f>VALUE(RIGHT(prep!M37, LEN(prep!M37) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z36" s="85" t="str">
+      <c r="AB36" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA36" s="85">
+      <c r="AC36" s="85">
         <f>VALUE(RIGHT(prep!N37, LEN(prep!N37) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB36" s="85" t="str">
+      <c r="AD36" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Design Thinking</v>
       </c>
-      <c r="AC36" s="66" t="s">
+      <c r="AE36" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
       <c r="AF36" s="66"/>
       <c r="AG36" s="66"/>
       <c r="AH36" s="66"/>
@@ -45211,125 +45456,131 @@
       <c r="AM36" s="66"/>
       <c r="AN36" s="66"/>
       <c r="AO36" s="66"/>
-    </row>
-    <row r="37" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+    </row>
+    <row r="37" spans="1:43" ht="15.75" customHeight="1">
       <c r="A37" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B29</f>
         <v>Workshop Facilitation</v>
       </c>
-      <c r="B37" s="85">
+      <c r="B37" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="85">
         <f>VALUE(RIGHT(prep!A38, LEN(prep!A38) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C37" s="85">
+      <c r="E37" s="85">
         <f>VALUE(RIGHT(prep!B38, LEN(prep!B38) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D37" s="85" t="str">
+      <c r="F37" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E37" s="85">
+      <c r="G37" s="85">
         <f>VALUE(RIGHT(prep!C38, LEN(prep!C38) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F37" s="85" t="str">
+      <c r="H37" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Workshop Facilitation</v>
       </c>
-      <c r="G37" s="85">
+      <c r="I37" s="85">
         <f>VALUE(RIGHT(prep!D38, LEN(prep!D38) - 6))</f>
         <v>4</v>
       </c>
-      <c r="H37" s="85" t="str">
+      <c r="J37" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Workshop Facilitation</v>
       </c>
-      <c r="I37" s="85">
+      <c r="K37" s="85">
         <f>VALUE(RIGHT(prep!E38, LEN(prep!E38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J37" s="85" t="str">
+      <c r="L37" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K37" s="85">
+      <c r="M37" s="85">
         <f>VALUE(RIGHT(prep!F38, LEN(prep!F38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L37" s="85" t="str">
+      <c r="N37" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M37" s="85">
+      <c r="O37" s="85">
         <f>VALUE(RIGHT(prep!G38, LEN(prep!G38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="N37" s="85" t="str">
+      <c r="P37" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O37" s="85">
+      <c r="Q37" s="85">
         <f>VALUE(RIGHT(prep!H38, LEN(prep!H38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="P37" s="85" t="str">
+      <c r="R37" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q37" s="85">
+      <c r="S37" s="85">
         <f>VALUE(RIGHT(prep!I38, LEN(prep!I38) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R37" s="85" t="str">
+      <c r="T37" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S37" s="85">
+      <c r="U37" s="85">
         <f>VALUE(RIGHT(prep!J38, LEN(prep!J38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T37" s="85" t="str">
+      <c r="V37" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U37" s="85">
+      <c r="W37" s="85">
         <f>VALUE(RIGHT(prep!K38, LEN(prep!K38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V37" s="85" t="str">
+      <c r="X37" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W37" s="85">
+      <c r="Y37" s="85">
         <f>VALUE(RIGHT(prep!L38, LEN(prep!L38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="X37" s="85" t="str">
+      <c r="Z37" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y37" s="85">
+      <c r="AA37" s="85">
         <f>VALUE(RIGHT(prep!M38, LEN(prep!M38) - 6))</f>
         <v>1</v>
       </c>
-      <c r="Z37" s="85" t="str">
+      <c r="AB37" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA37" s="85">
+      <c r="AC37" s="85">
         <f>VALUE(RIGHT(prep!N38, LEN(prep!N38) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB37" s="85" t="str">
+      <c r="AD37" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC37" s="66" t="s">
+      <c r="AE37" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
       <c r="AF37" s="66"/>
       <c r="AG37" s="66"/>
       <c r="AH37" s="66"/>
@@ -45340,125 +45591,131 @@
       <c r="AM37" s="66"/>
       <c r="AN37" s="66"/>
       <c r="AO37" s="66"/>
-    </row>
-    <row r="38" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+    </row>
+    <row r="38" spans="1:43" ht="15.75" customHeight="1">
       <c r="A38" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B30</f>
         <v>Business Case Development</v>
       </c>
-      <c r="B38" s="85">
+      <c r="B38" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="85">
         <f>VALUE(RIGHT(prep!A39, LEN(prep!A39) - 6))</f>
         <v>1</v>
       </c>
-      <c r="C38" s="85">
+      <c r="E38" s="85">
         <f>VALUE(RIGHT(prep!B39, LEN(prep!B39) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D38" s="85" t="str">
+      <c r="F38" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Business Case Development</v>
       </c>
-      <c r="E38" s="85">
+      <c r="G38" s="85">
         <f>VALUE(RIGHT(prep!C39, LEN(prep!C39) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F38" s="85" t="str">
+      <c r="H38" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Business Case Development</v>
       </c>
-      <c r="G38" s="85">
+      <c r="I38" s="85">
         <f>VALUE(RIGHT(prep!D39, LEN(prep!D39) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H38" s="85" t="str">
+      <c r="J38" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Business Case Development</v>
       </c>
-      <c r="I38" s="85">
+      <c r="K38" s="85">
         <f>VALUE(RIGHT(prep!E39, LEN(prep!E39) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J38" s="85" t="str">
+      <c r="L38" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K38" s="85">
+      <c r="M38" s="85">
         <f>VALUE(RIGHT(prep!F39, LEN(prep!F39) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L38" s="85" t="str">
+      <c r="N38" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M38" s="85">
+      <c r="O38" s="85">
         <f>VALUE(RIGHT(prep!G39, LEN(prep!G39) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N38" s="85" t="str">
+      <c r="P38" s="85" t="str">
         <f t="shared" si="5"/>
         <v>Business Case Development</v>
       </c>
-      <c r="O38" s="85">
+      <c r="Q38" s="85">
         <f>VALUE(RIGHT(prep!H39, LEN(prep!H39) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P38" s="85" t="str">
+      <c r="R38" s="85" t="str">
         <f t="shared" si="6"/>
         <v>Business Case Development</v>
       </c>
-      <c r="Q38" s="85">
+      <c r="S38" s="85">
         <f>VALUE(RIGHT(prep!I39, LEN(prep!I39) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R38" s="85" t="str">
+      <c r="T38" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Business Case Development</v>
       </c>
-      <c r="S38" s="85">
+      <c r="U38" s="85">
         <f>VALUE(RIGHT(prep!J39, LEN(prep!J39) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T38" s="85" t="str">
+      <c r="V38" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U38" s="85">
+      <c r="W38" s="85">
         <f>VALUE(RIGHT(prep!K39, LEN(prep!K39) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V38" s="85" t="str">
+      <c r="X38" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W38" s="85">
+      <c r="Y38" s="85">
         <f>VALUE(RIGHT(prep!L39, LEN(prep!L39) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X38" s="85" t="str">
+      <c r="Z38" s="85" t="str">
         <f t="shared" si="10"/>
         <v>Business Case Development</v>
       </c>
-      <c r="Y38" s="85">
+      <c r="AA38" s="85">
         <f>VALUE(RIGHT(prep!M39, LEN(prep!M39) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z38" s="85" t="str">
+      <c r="AB38" s="85" t="str">
         <f t="shared" si="11"/>
         <v>Business Case Development</v>
       </c>
-      <c r="AA38" s="85">
+      <c r="AC38" s="85">
         <f>VALUE(RIGHT(prep!N39, LEN(prep!N39) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB38" s="85" t="str">
+      <c r="AD38" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Business Case Development</v>
       </c>
-      <c r="AC38" s="66" t="s">
+      <c r="AE38" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
       <c r="AF38" s="66"/>
       <c r="AG38" s="66"/>
       <c r="AH38" s="66"/>
@@ -45469,125 +45726,131 @@
       <c r="AM38" s="66"/>
       <c r="AN38" s="66"/>
       <c r="AO38" s="66"/>
-    </row>
-    <row r="39" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+    </row>
+    <row r="39" spans="1:43" ht="15.75" customHeight="1">
       <c r="A39" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B31</f>
         <v>Operating Model Design</v>
       </c>
-      <c r="B39" s="85">
+      <c r="B39" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="85">
         <f>VALUE(RIGHT(prep!A40, LEN(prep!A40) - 6))</f>
         <v>2</v>
       </c>
-      <c r="C39" s="85">
+      <c r="E39" s="85">
         <f>VALUE(RIGHT(prep!B40, LEN(prep!B40) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D39" s="85" t="str">
+      <c r="F39" s="85" t="str">
         <f t="shared" si="0"/>
         <v>Operating Model Design</v>
       </c>
-      <c r="E39" s="85">
+      <c r="G39" s="85">
         <f>VALUE(RIGHT(prep!C40, LEN(prep!C40) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F39" s="85" t="str">
+      <c r="H39" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Operating Model Design</v>
       </c>
-      <c r="G39" s="85">
+      <c r="I39" s="85">
         <f>VALUE(RIGHT(prep!D40, LEN(prep!D40) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H39" s="85" t="str">
+      <c r="J39" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Operating Model Design</v>
       </c>
-      <c r="I39" s="85">
+      <c r="K39" s="85">
         <f>VALUE(RIGHT(prep!E40, LEN(prep!E40) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J39" s="85" t="str">
+      <c r="L39" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K39" s="85">
+      <c r="M39" s="85">
         <f>VALUE(RIGHT(prep!F40, LEN(prep!F40) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L39" s="85" t="str">
+      <c r="N39" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M39" s="85">
+      <c r="O39" s="85">
         <f>VALUE(RIGHT(prep!G40, LEN(prep!G40) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N39" s="85" t="str">
+      <c r="P39" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O39" s="85">
+      <c r="Q39" s="85">
         <f>VALUE(RIGHT(prep!H40, LEN(prep!H40) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P39" s="85" t="str">
+      <c r="R39" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q39" s="85">
+      <c r="S39" s="85">
         <f>VALUE(RIGHT(prep!I40, LEN(prep!I40) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R39" s="85" t="str">
+      <c r="T39" s="85" t="str">
         <f t="shared" si="7"/>
         <v>Operating Model Design</v>
       </c>
-      <c r="S39" s="85">
+      <c r="U39" s="85">
         <f>VALUE(RIGHT(prep!J40, LEN(prep!J40) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T39" s="85" t="str">
+      <c r="V39" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U39" s="85">
+      <c r="W39" s="85">
         <f>VALUE(RIGHT(prep!K40, LEN(prep!K40) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V39" s="85" t="str">
+      <c r="X39" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W39" s="85">
+      <c r="Y39" s="85">
         <f>VALUE(RIGHT(prep!L40, LEN(prep!L40) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X39" s="85" t="str">
+      <c r="Z39" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y39" s="85">
+      <c r="AA39" s="85">
         <f>VALUE(RIGHT(prep!M40, LEN(prep!M40) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z39" s="85" t="str">
+      <c r="AB39" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA39" s="85">
+      <c r="AC39" s="85">
         <f>VALUE(RIGHT(prep!N40, LEN(prep!N40) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB39" s="85" t="str">
+      <c r="AD39" s="85" t="str">
         <f t="shared" si="12"/>
         <v>Operating Model Design</v>
       </c>
-      <c r="AC39" s="66" t="s">
+      <c r="AE39" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
       <c r="AF39" s="66"/>
       <c r="AG39" s="66"/>
       <c r="AH39" s="66"/>
@@ -45598,125 +45861,131 @@
       <c r="AM39" s="66"/>
       <c r="AN39" s="66"/>
       <c r="AO39" s="66"/>
-    </row>
-    <row r="40" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+    </row>
+    <row r="40" spans="1:43" ht="15.75" customHeight="1">
       <c r="A40" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B32</f>
         <v>Roadmap Development</v>
       </c>
-      <c r="B40" s="85">
+      <c r="B40" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="85">
         <f>VALUE(RIGHT(prep!A41, LEN(prep!A41) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C40" s="85">
+      <c r="E40" s="85">
         <f>VALUE(RIGHT(prep!B41, LEN(prep!B41) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D40" s="85" t="str">
+      <c r="F40" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E40" s="85">
+      <c r="G40" s="85">
         <f>VALUE(RIGHT(prep!C41, LEN(prep!C41) - 6))</f>
         <v>3</v>
       </c>
-      <c r="F40" s="85" t="str">
+      <c r="H40" s="85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G40" s="85">
+      <c r="I40" s="85">
         <f>VALUE(RIGHT(prep!D41, LEN(prep!D41) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H40" s="85" t="str">
+      <c r="J40" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Roadmap Development</v>
       </c>
-      <c r="I40" s="85">
+      <c r="K40" s="85">
         <f>VALUE(RIGHT(prep!E41, LEN(prep!E41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J40" s="85" t="str">
+      <c r="L40" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K40" s="85">
+      <c r="M40" s="85">
         <f>VALUE(RIGHT(prep!F41, LEN(prep!F41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L40" s="85" t="str">
+      <c r="N40" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M40" s="85">
+      <c r="O40" s="85">
         <f>VALUE(RIGHT(prep!G41, LEN(prep!G41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="N40" s="85" t="str">
+      <c r="P40" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O40" s="85">
+      <c r="Q40" s="85">
         <f>VALUE(RIGHT(prep!H41, LEN(prep!H41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="P40" s="85" t="str">
+      <c r="R40" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q40" s="85">
+      <c r="S40" s="85">
         <f>VALUE(RIGHT(prep!I41, LEN(prep!I41) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R40" s="85" t="str">
+      <c r="T40" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S40" s="85">
+      <c r="U40" s="85">
         <f>VALUE(RIGHT(prep!J41, LEN(prep!J41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T40" s="85" t="str">
+      <c r="V40" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U40" s="85">
+      <c r="W40" s="85">
         <f>VALUE(RIGHT(prep!K41, LEN(prep!K41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V40" s="85" t="str">
+      <c r="X40" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W40" s="85">
+      <c r="Y40" s="85">
         <f>VALUE(RIGHT(prep!L41, LEN(prep!L41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="X40" s="85" t="str">
+      <c r="Z40" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y40" s="85">
+      <c r="AA40" s="85">
         <f>VALUE(RIGHT(prep!M41, LEN(prep!M41) - 6))</f>
         <v>1</v>
       </c>
-      <c r="Z40" s="85" t="str">
+      <c r="AB40" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA40" s="85">
+      <c r="AC40" s="85">
         <f>VALUE(RIGHT(prep!N41, LEN(prep!N41) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB40" s="85" t="str">
+      <c r="AD40" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC40" s="66" t="s">
+      <c r="AE40" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
       <c r="AF40" s="66"/>
       <c r="AG40" s="66"/>
       <c r="AH40" s="66"/>
@@ -45727,125 +45996,131 @@
       <c r="AM40" s="66"/>
       <c r="AN40" s="66"/>
       <c r="AO40" s="66"/>
-    </row>
-    <row r="41" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP40" s="66"/>
+      <c r="AQ40" s="66"/>
+    </row>
+    <row r="41" spans="1:43" ht="15.75" customHeight="1">
       <c r="A41" s="91" t="str">
         <f>'Self-Assessment - BU Skills'!B33</f>
         <v>Data strategy creation</v>
       </c>
-      <c r="B41" s="85">
+      <c r="B41" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="85">
         <f>VALUE(RIGHT(prep!A42, LEN(prep!A42) - 6))</f>
         <v>3</v>
       </c>
-      <c r="C41" s="85">
+      <c r="E41" s="85">
         <f>VALUE(RIGHT(prep!B42, LEN(prep!B42) - 6))</f>
         <v>3</v>
       </c>
-      <c r="D41" s="85" t="str">
+      <c r="F41" s="85" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E41" s="85">
+      <c r="G41" s="85">
         <f>VALUE(RIGHT(prep!C42, LEN(prep!C42) - 6))</f>
         <v>4</v>
       </c>
-      <c r="F41" s="85" t="str">
+      <c r="H41" s="85" t="str">
         <f t="shared" si="1"/>
         <v>Data strategy creation</v>
       </c>
-      <c r="G41" s="85">
+      <c r="I41" s="85">
         <f>VALUE(RIGHT(prep!D42, LEN(prep!D42) - 6))</f>
         <v>5</v>
       </c>
-      <c r="H41" s="85" t="str">
+      <c r="J41" s="85" t="str">
         <f t="shared" si="2"/>
         <v>Data strategy creation</v>
       </c>
-      <c r="I41" s="85">
+      <c r="K41" s="85">
         <f>VALUE(RIGHT(prep!E42, LEN(prep!E42) - 6))</f>
         <v>1</v>
       </c>
-      <c r="J41" s="85" t="str">
+      <c r="L41" s="85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K41" s="85">
+      <c r="M41" s="85">
         <f>VALUE(RIGHT(prep!F42, LEN(prep!F42) - 6))</f>
         <v>1</v>
       </c>
-      <c r="L41" s="85" t="str">
+      <c r="N41" s="85" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M41" s="85">
+      <c r="O41" s="85">
         <f>VALUE(RIGHT(prep!G42, LEN(prep!G42) - 6))</f>
         <v>2</v>
       </c>
-      <c r="N41" s="85" t="str">
+      <c r="P41" s="85" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O41" s="85">
+      <c r="Q41" s="85">
         <f>VALUE(RIGHT(prep!H42, LEN(prep!H42) - 6))</f>
         <v>2</v>
       </c>
-      <c r="P41" s="85" t="str">
+      <c r="R41" s="85" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q41" s="85">
+      <c r="S41" s="85">
         <f>VALUE(RIGHT(prep!I42, LEN(prep!I42) - 6))</f>
         <v>3</v>
       </c>
-      <c r="R41" s="85" t="str">
+      <c r="T41" s="85" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S41" s="85">
+      <c r="U41" s="85">
         <f>VALUE(RIGHT(prep!J42, LEN(prep!J42) - 6))</f>
         <v>1</v>
       </c>
-      <c r="T41" s="85" t="str">
+      <c r="V41" s="85" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U41" s="85">
+      <c r="W41" s="85">
         <f>VALUE(RIGHT(prep!K42, LEN(prep!K42) - 6))</f>
         <v>1</v>
       </c>
-      <c r="V41" s="85" t="str">
+      <c r="X41" s="85" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="W41" s="85">
+      <c r="Y41" s="85">
         <f>VALUE(RIGHT(prep!L42, LEN(prep!L42) - 6))</f>
         <v>2</v>
       </c>
-      <c r="X41" s="85" t="str">
+      <c r="Z41" s="85" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Y41" s="85">
+      <c r="AA41" s="85">
         <f>VALUE(RIGHT(prep!M42, LEN(prep!M42) - 6))</f>
         <v>2</v>
       </c>
-      <c r="Z41" s="85" t="str">
+      <c r="AB41" s="85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA41" s="85">
+      <c r="AC41" s="85">
         <f>VALUE(RIGHT(prep!N42, LEN(prep!N42) - 6))</f>
         <v>3</v>
       </c>
-      <c r="AB41" s="85" t="str">
+      <c r="AD41" s="85" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AC41" s="66" t="s">
+      <c r="AE41" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
       <c r="AF41" s="66"/>
       <c r="AG41" s="66"/>
       <c r="AH41" s="66"/>
@@ -45856,11 +46131,13 @@
       <c r="AM41" s="66"/>
       <c r="AN41" s="66"/>
       <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AB41">
+  <conditionalFormatting sqref="E2:AD41">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>C2 &lt;= $B2</formula>
+      <formula>E2 &lt;= $D2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
